--- a/src/output/resultsByAge6.xlsx
+++ b/src/output/resultsByAge6.xlsx
@@ -346,870 +346,870 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>415.0</v>
+        <v>394.0</v>
       </c>
       <c r="B1" t="n">
-        <v>155.0</v>
+        <v>120.0</v>
       </c>
       <c r="C1" t="n">
-        <v>103.0</v>
+        <v>84.0</v>
       </c>
       <c r="D1" t="n">
-        <v>593.0</v>
+        <v>523.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>406.0</v>
+        <v>347.0</v>
       </c>
       <c r="B2" t="n">
-        <v>151.0</v>
+        <v>126.0</v>
       </c>
       <c r="C2" t="n">
-        <v>111.0</v>
+        <v>82.0</v>
       </c>
       <c r="D2" t="n">
-        <v>573.0</v>
+        <v>551.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>399.0</v>
+        <v>335.0</v>
       </c>
       <c r="B3" t="n">
-        <v>110.0</v>
+        <v>105.0</v>
       </c>
       <c r="C3" t="n">
-        <v>115.0</v>
+        <v>111.0</v>
       </c>
       <c r="D3" t="n">
-        <v>753.0</v>
+        <v>605.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>341.0</v>
+        <v>313.0</v>
       </c>
       <c r="B4" t="n">
-        <v>143.0</v>
+        <v>115.0</v>
       </c>
       <c r="C4" t="n">
-        <v>145.0</v>
+        <v>115.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1249.0</v>
+        <v>795.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>314.0</v>
+        <v>261.0</v>
       </c>
       <c r="B5" t="n">
-        <v>157.0</v>
+        <v>115.0</v>
       </c>
       <c r="C5" t="n">
-        <v>128.0</v>
+        <v>130.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1400.0</v>
+        <v>858.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>250.0</v>
+        <v>229.0</v>
       </c>
       <c r="B6" t="n">
-        <v>149.0</v>
+        <v>84.0</v>
       </c>
       <c r="C6" t="n">
-        <v>155.0</v>
+        <v>115.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1263.0</v>
+        <v>827.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>233.0</v>
+        <v>197.0</v>
       </c>
       <c r="B7" t="n">
-        <v>138.0</v>
+        <v>82.0</v>
       </c>
       <c r="C7" t="n">
-        <v>154.0</v>
+        <v>98.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1221.0</v>
+        <v>829.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>198.0</v>
+        <v>162.0</v>
       </c>
       <c r="B8" t="n">
-        <v>124.0</v>
+        <v>98.0</v>
       </c>
       <c r="C8" t="n">
-        <v>164.0</v>
+        <v>92.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1054.0</v>
+        <v>839.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>204.0</v>
+        <v>145.0</v>
       </c>
       <c r="B9" t="n">
-        <v>113.0</v>
+        <v>71.0</v>
       </c>
       <c r="C9" t="n">
-        <v>137.0</v>
+        <v>114.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1057.0</v>
+        <v>918.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>183.0</v>
+        <v>117.0</v>
       </c>
       <c r="B10" t="n">
-        <v>119.0</v>
+        <v>91.0</v>
       </c>
       <c r="C10" t="n">
-        <v>137.0</v>
+        <v>99.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1061.0</v>
+        <v>842.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>150.0</v>
+        <v>131.0</v>
       </c>
       <c r="B11" t="n">
-        <v>122.0</v>
+        <v>93.0</v>
       </c>
       <c r="C11" t="n">
-        <v>120.0</v>
+        <v>102.0</v>
       </c>
       <c r="D11" t="n">
-        <v>969.0</v>
+        <v>742.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>155.0</v>
+        <v>91.0</v>
       </c>
       <c r="B12" t="n">
-        <v>104.0</v>
+        <v>82.0</v>
       </c>
       <c r="C12" t="n">
-        <v>116.0</v>
+        <v>105.0</v>
       </c>
       <c r="D12" t="n">
-        <v>955.0</v>
+        <v>710.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130.0</v>
+        <v>117.0</v>
       </c>
       <c r="B13" t="n">
-        <v>78.0</v>
+        <v>76.0</v>
       </c>
       <c r="C13" t="n">
-        <v>106.0</v>
+        <v>70.0</v>
       </c>
       <c r="D13" t="n">
-        <v>940.0</v>
+        <v>768.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>127.0</v>
+        <v>102.0</v>
       </c>
       <c r="B14" t="n">
-        <v>93.0</v>
+        <v>68.0</v>
       </c>
       <c r="C14" t="n">
-        <v>112.0</v>
+        <v>78.0</v>
       </c>
       <c r="D14" t="n">
-        <v>929.0</v>
+        <v>732.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>124.0</v>
+        <v>88.0</v>
       </c>
       <c r="B15" t="n">
-        <v>91.0</v>
+        <v>70.0</v>
       </c>
       <c r="C15" t="n">
-        <v>119.0</v>
+        <v>78.0</v>
       </c>
       <c r="D15" t="n">
-        <v>849.0</v>
+        <v>729.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>135.0</v>
+        <v>92.0</v>
       </c>
       <c r="B16" t="n">
-        <v>98.0</v>
+        <v>67.0</v>
       </c>
       <c r="C16" t="n">
-        <v>119.0</v>
+        <v>100.0</v>
       </c>
       <c r="D16" t="n">
-        <v>870.0</v>
+        <v>752.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>123.0</v>
+        <v>94.0</v>
       </c>
       <c r="B17" t="n">
-        <v>99.0</v>
+        <v>59.0</v>
       </c>
       <c r="C17" t="n">
-        <v>110.0</v>
+        <v>97.0</v>
       </c>
       <c r="D17" t="n">
-        <v>797.0</v>
+        <v>722.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>126.0</v>
+        <v>77.0</v>
       </c>
       <c r="B18" t="n">
-        <v>89.0</v>
+        <v>67.0</v>
       </c>
       <c r="C18" t="n">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
       <c r="D18" t="n">
-        <v>798.0</v>
+        <v>724.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>122.0</v>
+        <v>103.0</v>
       </c>
       <c r="B19" t="n">
-        <v>92.0</v>
+        <v>63.0</v>
       </c>
       <c r="C19" t="n">
-        <v>107.0</v>
+        <v>82.0</v>
       </c>
       <c r="D19" t="n">
-        <v>850.0</v>
+        <v>637.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>115.0</v>
+        <v>88.0</v>
       </c>
       <c r="B20" t="n">
-        <v>94.0</v>
+        <v>60.0</v>
       </c>
       <c r="C20" t="n">
-        <v>93.0</v>
+        <v>87.0</v>
       </c>
       <c r="D20" t="n">
-        <v>822.0</v>
+        <v>704.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>122.0</v>
+        <v>74.0</v>
       </c>
       <c r="B21" t="n">
-        <v>72.0</v>
+        <v>60.0</v>
       </c>
       <c r="C21" t="n">
-        <v>116.0</v>
+        <v>85.0</v>
       </c>
       <c r="D21" t="n">
-        <v>793.0</v>
+        <v>691.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>122.0</v>
+        <v>78.0</v>
       </c>
       <c r="B22" t="n">
-        <v>99.0</v>
+        <v>76.0</v>
       </c>
       <c r="C22" t="n">
         <v>102.0</v>
       </c>
       <c r="D22" t="n">
-        <v>803.0</v>
+        <v>654.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>119.0</v>
+        <v>104.0</v>
       </c>
       <c r="B23" t="n">
-        <v>93.0</v>
+        <v>75.0</v>
       </c>
       <c r="C23" t="n">
-        <v>117.0</v>
+        <v>106.0</v>
       </c>
       <c r="D23" t="n">
-        <v>793.0</v>
+        <v>654.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111.0</v>
+        <v>94.0</v>
       </c>
       <c r="B24" t="n">
-        <v>89.0</v>
+        <v>71.0</v>
       </c>
       <c r="C24" t="n">
-        <v>104.0</v>
+        <v>95.0</v>
       </c>
       <c r="D24" t="n">
-        <v>776.0</v>
+        <v>716.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>109.0</v>
+        <v>94.0</v>
       </c>
       <c r="B25" t="n">
-        <v>74.0</v>
+        <v>61.0</v>
       </c>
       <c r="C25" t="n">
-        <v>104.0</v>
+        <v>72.0</v>
       </c>
       <c r="D25" t="n">
-        <v>748.0</v>
+        <v>656.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>102.0</v>
+        <v>94.0</v>
       </c>
       <c r="B26" t="n">
-        <v>75.0</v>
+        <v>80.0</v>
       </c>
       <c r="C26" t="n">
-        <v>97.0</v>
+        <v>95.0</v>
       </c>
       <c r="D26" t="n">
-        <v>838.0</v>
+        <v>668.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>114.0</v>
+        <v>91.0</v>
       </c>
       <c r="B27" t="n">
-        <v>76.0</v>
+        <v>78.0</v>
       </c>
       <c r="C27" t="n">
-        <v>108.0</v>
+        <v>80.0</v>
       </c>
       <c r="D27" t="n">
-        <v>804.0</v>
+        <v>701.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>109.0</v>
+        <v>80.0</v>
       </c>
       <c r="B28" t="n">
-        <v>70.0</v>
+        <v>69.0</v>
       </c>
       <c r="C28" t="n">
-        <v>116.0</v>
+        <v>90.0</v>
       </c>
       <c r="D28" t="n">
-        <v>826.0</v>
+        <v>702.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>105.0</v>
+        <v>82.0</v>
       </c>
       <c r="B29" t="n">
-        <v>92.0</v>
+        <v>65.0</v>
       </c>
       <c r="C29" t="n">
-        <v>104.0</v>
+        <v>81.0</v>
       </c>
       <c r="D29" t="n">
-        <v>797.0</v>
+        <v>663.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>108.0</v>
+        <v>82.0</v>
       </c>
       <c r="B30" t="n">
-        <v>76.0</v>
+        <v>60.0</v>
       </c>
       <c r="C30" t="n">
-        <v>95.0</v>
+        <v>91.0</v>
       </c>
       <c r="D30" t="n">
-        <v>808.0</v>
+        <v>726.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>94.0</v>
+        <v>90.0</v>
       </c>
       <c r="B31" t="n">
-        <v>99.0</v>
+        <v>83.0</v>
       </c>
       <c r="C31" t="n">
-        <v>83.0</v>
+        <v>82.0</v>
       </c>
       <c r="D31" t="n">
-        <v>786.0</v>
+        <v>701.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>110.0</v>
+        <v>115.0</v>
       </c>
       <c r="B32" t="n">
-        <v>71.0</v>
+        <v>68.0</v>
       </c>
       <c r="C32" t="n">
-        <v>98.0</v>
+        <v>91.0</v>
       </c>
       <c r="D32" t="n">
-        <v>774.0</v>
+        <v>691.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>113.0</v>
+        <v>84.0</v>
       </c>
       <c r="B33" t="n">
-        <v>91.0</v>
+        <v>87.0</v>
       </c>
       <c r="C33" t="n">
-        <v>97.0</v>
+        <v>100.0</v>
       </c>
       <c r="D33" t="n">
-        <v>772.0</v>
+        <v>731.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>127.0</v>
+        <v>96.0</v>
       </c>
       <c r="B34" t="n">
-        <v>116.0</v>
+        <v>115.0</v>
       </c>
       <c r="C34" t="n">
-        <v>127.0</v>
+        <v>149.0</v>
       </c>
       <c r="D34" t="n">
-        <v>764.0</v>
+        <v>689.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>120.0</v>
+        <v>126.0</v>
       </c>
       <c r="B35" t="n">
-        <v>138.0</v>
+        <v>170.0</v>
       </c>
       <c r="C35" t="n">
-        <v>180.0</v>
+        <v>212.0</v>
       </c>
       <c r="D35" t="n">
-        <v>781.0</v>
+        <v>706.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>138.0</v>
+        <v>114.0</v>
       </c>
       <c r="B36" t="n">
-        <v>142.0</v>
+        <v>163.0</v>
       </c>
       <c r="C36" t="n">
-        <v>235.0</v>
+        <v>256.0</v>
       </c>
       <c r="D36" t="n">
-        <v>846.0</v>
+        <v>790.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>166.0</v>
+        <v>121.0</v>
       </c>
       <c r="B37" t="n">
-        <v>118.0</v>
+        <v>148.0</v>
       </c>
       <c r="C37" t="n">
-        <v>257.0</v>
+        <v>225.0</v>
       </c>
       <c r="D37" t="n">
-        <v>874.0</v>
+        <v>795.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>147.0</v>
+        <v>151.0</v>
       </c>
       <c r="B38" t="n">
-        <v>173.0</v>
+        <v>201.0</v>
       </c>
       <c r="C38" t="n">
-        <v>233.0</v>
+        <v>304.0</v>
       </c>
       <c r="D38" t="n">
-        <v>914.0</v>
+        <v>898.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>163.0</v>
+        <v>160.0</v>
       </c>
       <c r="B39" t="n">
-        <v>262.0</v>
+        <v>267.0</v>
       </c>
       <c r="C39" t="n">
-        <v>339.0</v>
+        <v>428.0</v>
       </c>
       <c r="D39" t="n">
-        <v>936.0</v>
+        <v>858.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>189.0</v>
+        <v>197.0</v>
       </c>
       <c r="B40" t="n">
-        <v>295.0</v>
+        <v>322.0</v>
       </c>
       <c r="C40" t="n">
-        <v>401.0</v>
+        <v>534.0</v>
       </c>
       <c r="D40" t="n">
-        <v>994.0</v>
+        <v>827.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>207.0</v>
+        <v>182.0</v>
       </c>
       <c r="B41" t="n">
-        <v>353.0</v>
+        <v>410.0</v>
       </c>
       <c r="C41" t="n">
-        <v>401.0</v>
+        <v>616.0</v>
       </c>
       <c r="D41" t="n">
-        <v>1060.0</v>
+        <v>931.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>241.0</v>
+        <v>217.0</v>
       </c>
       <c r="B42" t="n">
-        <v>431.0</v>
+        <v>489.0</v>
       </c>
       <c r="C42" t="n">
-        <v>475.0</v>
+        <v>682.0</v>
       </c>
       <c r="D42" t="n">
-        <v>1130.0</v>
+        <v>1006.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>237.0</v>
+        <v>219.0</v>
       </c>
       <c r="B43" t="n">
-        <v>386.0</v>
+        <v>426.0</v>
       </c>
       <c r="C43" t="n">
-        <v>531.0</v>
+        <v>734.0</v>
       </c>
       <c r="D43" t="n">
-        <v>1315.0</v>
+        <v>1176.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>220.0</v>
+        <v>215.0</v>
       </c>
       <c r="B44" t="n">
-        <v>278.0</v>
+        <v>361.0</v>
       </c>
       <c r="C44" t="n">
-        <v>469.0</v>
+        <v>655.0</v>
       </c>
       <c r="D44" t="n">
-        <v>1405.0</v>
+        <v>1450.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>247.0</v>
+        <v>260.0</v>
       </c>
       <c r="B45" t="n">
-        <v>353.0</v>
+        <v>427.0</v>
       </c>
       <c r="C45" t="n">
-        <v>493.0</v>
+        <v>661.0</v>
       </c>
       <c r="D45" t="n">
-        <v>1458.0</v>
+        <v>1520.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251.0</v>
+        <v>241.0</v>
       </c>
       <c r="B46" t="n">
-        <v>433.0</v>
+        <v>491.0</v>
       </c>
       <c r="C46" t="n">
-        <v>619.0</v>
+        <v>841.0</v>
       </c>
       <c r="D46" t="n">
-        <v>1553.0</v>
+        <v>1454.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>256.0</v>
+        <v>280.0</v>
       </c>
       <c r="B47" t="n">
-        <v>489.0</v>
+        <v>648.0</v>
       </c>
       <c r="C47" t="n">
-        <v>717.0</v>
+        <v>982.0</v>
       </c>
       <c r="D47" t="n">
-        <v>1533.0</v>
+        <v>1343.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>296.0</v>
+        <v>277.0</v>
       </c>
       <c r="B48" t="n">
-        <v>559.0</v>
+        <v>694.0</v>
       </c>
       <c r="C48" t="n">
-        <v>811.0</v>
+        <v>1107.0</v>
       </c>
       <c r="D48" t="n">
-        <v>1589.0</v>
+        <v>1358.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>363.0</v>
+        <v>290.0</v>
       </c>
       <c r="B49" t="n">
-        <v>663.0</v>
+        <v>782.0</v>
       </c>
       <c r="C49" t="n">
-        <v>866.0</v>
+        <v>1189.0</v>
       </c>
       <c r="D49" t="n">
-        <v>1704.0</v>
+        <v>1474.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>322.0</v>
+        <v>293.0</v>
       </c>
       <c r="B50" t="n">
-        <v>618.0</v>
+        <v>656.0</v>
       </c>
       <c r="C50" t="n">
-        <v>862.0</v>
+        <v>1248.0</v>
       </c>
       <c r="D50" t="n">
-        <v>1804.0</v>
+        <v>1747.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>318.0</v>
+        <v>336.0</v>
       </c>
       <c r="B51" t="n">
-        <v>424.0</v>
+        <v>541.0</v>
       </c>
       <c r="C51" t="n">
-        <v>821.0</v>
+        <v>1127.0</v>
       </c>
       <c r="D51" t="n">
-        <v>1923.0</v>
+        <v>2140.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>308.0</v>
+        <v>331.0</v>
       </c>
       <c r="B52" t="n">
-        <v>542.0</v>
+        <v>614.0</v>
       </c>
       <c r="C52" t="n">
-        <v>793.0</v>
+        <v>1060.0</v>
       </c>
       <c r="D52" t="n">
-        <v>2093.0</v>
+        <v>2317.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>370.0</v>
+        <v>321.0</v>
       </c>
       <c r="B53" t="n">
-        <v>696.0</v>
+        <v>814.0</v>
       </c>
       <c r="C53" t="n">
-        <v>978.0</v>
+        <v>1289.0</v>
       </c>
       <c r="D53" t="n">
-        <v>2133.0</v>
+        <v>2081.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>371.0</v>
+        <v>368.0</v>
       </c>
       <c r="B54" t="n">
-        <v>705.0</v>
+        <v>973.0</v>
       </c>
       <c r="C54" t="n">
-        <v>994.0</v>
+        <v>1488.0</v>
       </c>
       <c r="D54" t="n">
-        <v>2018.0</v>
+        <v>1898.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>387.0</v>
+        <v>396.0</v>
       </c>
       <c r="B55" t="n">
-        <v>758.0</v>
+        <v>1023.0</v>
       </c>
       <c r="C55" t="n">
-        <v>1076.0</v>
+        <v>1548.0</v>
       </c>
       <c r="D55" t="n">
-        <v>2022.0</v>
+        <v>1956.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>470.0</v>
+        <v>411.0</v>
       </c>
       <c r="B56" t="n">
-        <v>953.0</v>
+        <v>1089.0</v>
       </c>
       <c r="C56" t="n">
-        <v>1161.0</v>
+        <v>1632.0</v>
       </c>
       <c r="D56" t="n">
-        <v>2258.0</v>
+        <v>2031.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>448.0</v>
+        <v>432.0</v>
       </c>
       <c r="B57" t="n">
-        <v>841.0</v>
+        <v>950.0</v>
       </c>
       <c r="C57" t="n">
-        <v>1234.0</v>
+        <v>1719.0</v>
       </c>
       <c r="D57" t="n">
-        <v>2437.0</v>
+        <v>2442.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>388.0</v>
+        <v>431.0</v>
       </c>
       <c r="B58" t="n">
-        <v>634.0</v>
+        <v>692.0</v>
       </c>
       <c r="C58" t="n">
-        <v>1103.0</v>
+        <v>1509.0</v>
       </c>
       <c r="D58" t="n">
-        <v>2515.0</v>
+        <v>2918.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>466.0</v>
+        <v>434.0</v>
       </c>
       <c r="B59" t="n">
-        <v>713.0</v>
+        <v>757.0</v>
       </c>
       <c r="C59" t="n">
-        <v>973.0</v>
+        <v>1350.0</v>
       </c>
       <c r="D59" t="n">
-        <v>2798.0</v>
+        <v>3094.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>458.0</v>
+        <v>465.0</v>
       </c>
       <c r="B60" t="n">
-        <v>970.0</v>
+        <v>1014.0</v>
       </c>
       <c r="C60" t="n">
-        <v>1239.0</v>
+        <v>1728.0</v>
       </c>
       <c r="D60" t="n">
-        <v>2715.0</v>
+        <v>2695.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>445.0</v>
+        <v>479.0</v>
       </c>
       <c r="B61" t="n">
-        <v>1007.0</v>
+        <v>1101.0</v>
       </c>
       <c r="C61" t="n">
-        <v>1397.0</v>
+        <v>1943.0</v>
       </c>
       <c r="D61" t="n">
-        <v>2496.0</v>
+        <v>2469.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>504.0</v>
+        <v>517.0</v>
       </c>
       <c r="B62" t="n">
-        <v>1077.0</v>
+        <v>1296.0</v>
       </c>
       <c r="C62" t="n">
-        <v>1382.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D62" t="n">
-        <v>2681.0</v>
+        <v>2506.0</v>
       </c>
     </row>
     <row r="63">
@@ -1217,1329 +1217,1329 @@
         <v>548.0</v>
       </c>
       <c r="B63" t="n">
-        <v>1205.0</v>
+        <v>1434.0</v>
       </c>
       <c r="C63" t="n">
-        <v>1504.0</v>
+        <v>2257.0</v>
       </c>
       <c r="D63" t="n">
-        <v>2822.0</v>
+        <v>2619.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>527.0</v>
+        <v>565.0</v>
       </c>
       <c r="B64" t="n">
-        <v>1089.0</v>
+        <v>1175.0</v>
       </c>
       <c r="C64" t="n">
-        <v>1617.0</v>
+        <v>2176.0</v>
       </c>
       <c r="D64" t="n">
-        <v>2936.0</v>
+        <v>2974.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>497.0</v>
+        <v>537.0</v>
       </c>
       <c r="B65" t="n">
-        <v>743.0</v>
+        <v>846.0</v>
       </c>
       <c r="C65" t="n">
-        <v>1394.0</v>
+        <v>1831.0</v>
       </c>
       <c r="D65" t="n">
-        <v>3270.0</v>
+        <v>3636.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>590.0</v>
+        <v>586.0</v>
       </c>
       <c r="B66" t="n">
-        <v>866.0</v>
+        <v>981.0</v>
       </c>
       <c r="C66" t="n">
-        <v>1232.0</v>
+        <v>1612.0</v>
       </c>
       <c r="D66" t="n">
-        <v>3411.0</v>
+        <v>3886.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>562.0</v>
+        <v>594.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1137.0</v>
+        <v>1313.0</v>
       </c>
       <c r="C67" t="n">
-        <v>1532.0</v>
+        <v>2083.0</v>
       </c>
       <c r="D67" t="n">
-        <v>3270.0</v>
+        <v>3443.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>538.0</v>
+        <v>580.0</v>
       </c>
       <c r="B68" t="n">
-        <v>1123.0</v>
+        <v>1390.0</v>
       </c>
       <c r="C68" t="n">
-        <v>1587.0</v>
+        <v>2296.0</v>
       </c>
       <c r="D68" t="n">
-        <v>3033.0</v>
+        <v>2952.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>580.0</v>
+        <v>594.0</v>
       </c>
       <c r="B69" t="n">
-        <v>1164.0</v>
+        <v>1566.0</v>
       </c>
       <c r="C69" t="n">
-        <v>1685.0</v>
+        <v>2340.0</v>
       </c>
       <c r="D69" t="n">
-        <v>3044.0</v>
+        <v>2894.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>615.0</v>
+        <v>647.0</v>
       </c>
       <c r="B70" t="n">
-        <v>1357.0</v>
+        <v>1647.0</v>
       </c>
       <c r="C70" t="n">
-        <v>1680.0</v>
+        <v>2497.0</v>
       </c>
       <c r="D70" t="n">
-        <v>3274.0</v>
+        <v>3129.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>646.0</v>
+        <v>631.0</v>
       </c>
       <c r="B71" t="n">
-        <v>1258.0</v>
+        <v>1402.0</v>
       </c>
       <c r="C71" t="n">
-        <v>1868.0</v>
+        <v>2350.0</v>
       </c>
       <c r="D71" t="n">
-        <v>3439.0</v>
+        <v>3593.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>558.0</v>
+        <v>691.0</v>
       </c>
       <c r="B72" t="n">
-        <v>838.0</v>
+        <v>1016.0</v>
       </c>
       <c r="C72" t="n">
-        <v>1591.0</v>
+        <v>2086.0</v>
       </c>
       <c r="D72" t="n">
-        <v>3710.0</v>
+        <v>4367.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>635.0</v>
+        <v>664.0</v>
       </c>
       <c r="B73" t="n">
-        <v>1010.0</v>
+        <v>1123.0</v>
       </c>
       <c r="C73" t="n">
-        <v>1456.0</v>
+        <v>1897.0</v>
       </c>
       <c r="D73" t="n">
-        <v>3833.0</v>
+        <v>4638.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>706.0</v>
+        <v>690.0</v>
       </c>
       <c r="B74" t="n">
-        <v>1269.0</v>
+        <v>1475.0</v>
       </c>
       <c r="C74" t="n">
-        <v>1643.0</v>
+        <v>2344.0</v>
       </c>
       <c r="D74" t="n">
-        <v>3731.0</v>
+        <v>3921.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>622.0</v>
+        <v>639.0</v>
       </c>
       <c r="B75" t="n">
-        <v>1205.0</v>
+        <v>1561.0</v>
       </c>
       <c r="C75" t="n">
-        <v>1733.0</v>
+        <v>2540.0</v>
       </c>
       <c r="D75" t="n">
-        <v>3436.0</v>
+        <v>3462.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>701.0</v>
+        <v>664.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1204.0</v>
+        <v>1698.0</v>
       </c>
       <c r="C76" t="n">
-        <v>1800.0</v>
+        <v>2656.0</v>
       </c>
       <c r="D76" t="n">
-        <v>3423.0</v>
+        <v>3453.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>748.0</v>
+        <v>700.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1421.0</v>
+        <v>1819.0</v>
       </c>
       <c r="C77" t="n">
-        <v>1839.0</v>
+        <v>2775.0</v>
       </c>
       <c r="D77" t="n">
-        <v>3510.0</v>
+        <v>3516.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>755.0</v>
+        <v>723.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1334.0</v>
+        <v>1582.0</v>
       </c>
       <c r="C78" t="n">
-        <v>1904.0</v>
+        <v>2623.0</v>
       </c>
       <c r="D78" t="n">
-        <v>3774.0</v>
+        <v>3930.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>593.0</v>
+        <v>766.0</v>
       </c>
       <c r="B79" t="n">
-        <v>928.0</v>
+        <v>1128.0</v>
       </c>
       <c r="C79" t="n">
-        <v>1584.0</v>
+        <v>2188.0</v>
       </c>
       <c r="D79" t="n">
-        <v>4058.0</v>
+        <v>4818.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>658.0</v>
+        <v>802.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1019.0</v>
+        <v>1172.0</v>
       </c>
       <c r="C80" t="n">
-        <v>1387.0</v>
+        <v>2038.0</v>
       </c>
       <c r="D80" t="n">
-        <v>4002.0</v>
+        <v>5267.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>711.0</v>
+        <v>730.0</v>
       </c>
       <c r="B81" t="n">
-        <v>1232.0</v>
+        <v>1491.0</v>
       </c>
       <c r="C81" t="n">
-        <v>1687.0</v>
+        <v>2298.0</v>
       </c>
       <c r="D81" t="n">
-        <v>3939.0</v>
+        <v>4406.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>661.0</v>
+        <v>719.0</v>
       </c>
       <c r="B82" t="n">
-        <v>1191.0</v>
+        <v>1624.0</v>
       </c>
       <c r="C82" t="n">
-        <v>1800.0</v>
+        <v>2593.0</v>
       </c>
       <c r="D82" t="n">
-        <v>3643.0</v>
+        <v>3686.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>670.0</v>
+        <v>705.0</v>
       </c>
       <c r="B83" t="n">
-        <v>1229.0</v>
+        <v>1699.0</v>
       </c>
       <c r="C83" t="n">
-        <v>1631.0</v>
+        <v>2686.0</v>
       </c>
       <c r="D83" t="n">
-        <v>3726.0</v>
+        <v>3802.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>732.0</v>
+        <v>740.0</v>
       </c>
       <c r="B84" t="n">
-        <v>1417.0</v>
+        <v>1824.0</v>
       </c>
       <c r="C84" t="n">
-        <v>1862.0</v>
+        <v>2699.0</v>
       </c>
       <c r="D84" t="n">
-        <v>3757.0</v>
+        <v>3926.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>735.0</v>
+        <v>731.0</v>
       </c>
       <c r="B85" t="n">
-        <v>1244.0</v>
+        <v>1499.0</v>
       </c>
       <c r="C85" t="n">
-        <v>1903.0</v>
+        <v>2666.0</v>
       </c>
       <c r="D85" t="n">
-        <v>3828.0</v>
+        <v>4198.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>665.0</v>
+        <v>736.0</v>
       </c>
       <c r="B86" t="n">
-        <v>994.0</v>
+        <v>1094.0</v>
       </c>
       <c r="C86" t="n">
-        <v>1585.0</v>
+        <v>2229.0</v>
       </c>
       <c r="D86" t="n">
-        <v>3975.0</v>
+        <v>5184.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>700.0</v>
+        <v>746.0</v>
       </c>
       <c r="B87" t="n">
-        <v>1063.0</v>
+        <v>1108.0</v>
       </c>
       <c r="C87" t="n">
-        <v>1449.0</v>
+        <v>1884.0</v>
       </c>
       <c r="D87" t="n">
-        <v>4084.0</v>
+        <v>5248.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>698.0</v>
+        <v>710.0</v>
       </c>
       <c r="B88" t="n">
-        <v>1194.0</v>
+        <v>1511.0</v>
       </c>
       <c r="C88" t="n">
-        <v>1688.0</v>
+        <v>2290.0</v>
       </c>
       <c r="D88" t="n">
-        <v>3950.0</v>
+        <v>4441.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>685.0</v>
+        <v>683.0</v>
       </c>
       <c r="B89" t="n">
-        <v>1176.0</v>
+        <v>1637.0</v>
       </c>
       <c r="C89" t="n">
-        <v>1764.0</v>
+        <v>2475.0</v>
       </c>
       <c r="D89" t="n">
-        <v>3687.0</v>
+        <v>3898.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>673.0</v>
+        <v>703.0</v>
       </c>
       <c r="B90" t="n">
-        <v>1188.0</v>
+        <v>1675.0</v>
       </c>
       <c r="C90" t="n">
-        <v>1677.0</v>
+        <v>2416.0</v>
       </c>
       <c r="D90" t="n">
-        <v>3731.0</v>
+        <v>3827.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>753.0</v>
+        <v>767.0</v>
       </c>
       <c r="B91" t="n">
-        <v>1394.0</v>
+        <v>1715.0</v>
       </c>
       <c r="C91" t="n">
-        <v>1765.0</v>
+        <v>2629.0</v>
       </c>
       <c r="D91" t="n">
-        <v>3767.0</v>
+        <v>3850.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>798.0</v>
+        <v>735.0</v>
       </c>
       <c r="B92" t="n">
-        <v>1279.0</v>
+        <v>1484.0</v>
       </c>
       <c r="C92" t="n">
-        <v>1818.0</v>
+        <v>2506.0</v>
       </c>
       <c r="D92" t="n">
-        <v>3932.0</v>
+        <v>4156.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>653.0</v>
+        <v>709.0</v>
       </c>
       <c r="B93" t="n">
-        <v>945.0</v>
+        <v>1065.0</v>
       </c>
       <c r="C93" t="n">
-        <v>1567.0</v>
+        <v>2087.0</v>
       </c>
       <c r="D93" t="n">
-        <v>4012.0</v>
+        <v>5018.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>726.0</v>
+        <v>807.0</v>
       </c>
       <c r="B94" t="n">
-        <v>1070.0</v>
+        <v>1165.0</v>
       </c>
       <c r="C94" t="n">
-        <v>1454.0</v>
+        <v>1791.0</v>
       </c>
       <c r="D94" t="n">
-        <v>4191.0</v>
+        <v>5303.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>650.0</v>
+        <v>692.0</v>
       </c>
       <c r="B95" t="n">
-        <v>1290.0</v>
+        <v>1431.0</v>
       </c>
       <c r="C95" t="n">
-        <v>1624.0</v>
+        <v>2119.0</v>
       </c>
       <c r="D95" t="n">
-        <v>3757.0</v>
+        <v>4350.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>673.0</v>
+        <v>714.0</v>
       </c>
       <c r="B96" t="n">
-        <v>1174.0</v>
+        <v>1489.0</v>
       </c>
       <c r="C96" t="n">
-        <v>1774.0</v>
+        <v>2260.0</v>
       </c>
       <c r="D96" t="n">
-        <v>3731.0</v>
+        <v>3838.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>694.0</v>
+        <v>721.0</v>
       </c>
       <c r="B97" t="n">
-        <v>1197.0</v>
+        <v>1622.0</v>
       </c>
       <c r="C97" t="n">
-        <v>1729.0</v>
+        <v>2350.0</v>
       </c>
       <c r="D97" t="n">
-        <v>3590.0</v>
+        <v>3715.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>755.0</v>
+        <v>754.0</v>
       </c>
       <c r="B98" t="n">
-        <v>1402.0</v>
+        <v>1650.0</v>
       </c>
       <c r="C98" t="n">
-        <v>1707.0</v>
+        <v>2327.0</v>
       </c>
       <c r="D98" t="n">
-        <v>3869.0</v>
+        <v>3773.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>764.0</v>
+        <v>715.0</v>
       </c>
       <c r="B99" t="n">
-        <v>1317.0</v>
+        <v>1469.0</v>
       </c>
       <c r="C99" t="n">
-        <v>1522.0</v>
+        <v>1997.0</v>
       </c>
       <c r="D99" t="n">
-        <v>3865.0</v>
+        <v>4213.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>702.0</v>
+        <v>779.0</v>
       </c>
       <c r="B100" t="n">
-        <v>1005.0</v>
+        <v>1090.0</v>
       </c>
       <c r="C100" t="n">
-        <v>1216.0</v>
+        <v>1373.0</v>
       </c>
       <c r="D100" t="n">
-        <v>3922.0</v>
+        <v>4990.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>719.0</v>
+        <v>794.0</v>
       </c>
       <c r="B101" t="n">
-        <v>1041.0</v>
+        <v>1126.0</v>
       </c>
       <c r="C101" t="n">
-        <v>922.0</v>
+        <v>903.0</v>
       </c>
       <c r="D101" t="n">
-        <v>3846.0</v>
+        <v>5070.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>690.0</v>
+        <v>815.0</v>
       </c>
       <c r="B102" t="n">
-        <v>1216.0</v>
+        <v>1372.0</v>
       </c>
       <c r="C102" t="n">
-        <v>767.0</v>
+        <v>633.0</v>
       </c>
       <c r="D102" t="n">
-        <v>3537.0</v>
+        <v>4030.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>689.0</v>
+        <v>723.0</v>
       </c>
       <c r="B103" t="n">
-        <v>1080.0</v>
+        <v>1426.0</v>
       </c>
       <c r="C103" t="n">
-        <v>582.0</v>
+        <v>443.0</v>
       </c>
       <c r="D103" t="n">
-        <v>3211.0</v>
+        <v>3223.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>641.0</v>
+        <v>716.0</v>
       </c>
       <c r="B104" t="n">
-        <v>1192.0</v>
+        <v>1489.0</v>
       </c>
       <c r="C104" t="n">
-        <v>387.0</v>
+        <v>339.0</v>
       </c>
       <c r="D104" t="n">
-        <v>2937.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>684.0</v>
+        <v>708.0</v>
       </c>
       <c r="B105" t="n">
-        <v>1290.0</v>
+        <v>1513.0</v>
       </c>
       <c r="C105" t="n">
-        <v>373.0</v>
+        <v>273.0</v>
       </c>
       <c r="D105" t="n">
-        <v>2851.0</v>
+        <v>2781.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>667.0</v>
+        <v>663.0</v>
       </c>
       <c r="B106" t="n">
-        <v>1261.0</v>
+        <v>1333.0</v>
       </c>
       <c r="C106" t="n">
-        <v>401.0</v>
+        <v>344.0</v>
       </c>
       <c r="D106" t="n">
-        <v>2748.0</v>
+        <v>2776.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>592.0</v>
+        <v>612.0</v>
       </c>
       <c r="B107" t="n">
-        <v>931.0</v>
+        <v>966.0</v>
       </c>
       <c r="C107" t="n">
-        <v>515.0</v>
+        <v>471.0</v>
       </c>
       <c r="D107" t="n">
-        <v>2810.0</v>
+        <v>3175.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>602.0</v>
+        <v>618.0</v>
       </c>
       <c r="B108" t="n">
-        <v>961.0</v>
+        <v>909.0</v>
       </c>
       <c r="C108" t="n">
-        <v>540.0</v>
+        <v>528.0</v>
       </c>
       <c r="D108" t="n">
-        <v>2731.0</v>
+        <v>3305.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>609.0</v>
+        <v>574.0</v>
       </c>
       <c r="B109" t="n">
-        <v>987.0</v>
+        <v>1174.0</v>
       </c>
       <c r="C109" t="n">
-        <v>630.0</v>
+        <v>751.0</v>
       </c>
       <c r="D109" t="n">
-        <v>2587.0</v>
+        <v>2670.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>517.0</v>
+        <v>529.0</v>
       </c>
       <c r="B110" t="n">
-        <v>922.0</v>
+        <v>1139.0</v>
       </c>
       <c r="C110" t="n">
-        <v>776.0</v>
+        <v>938.0</v>
       </c>
       <c r="D110" t="n">
-        <v>2576.0</v>
+        <v>2356.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>563.0</v>
+        <v>568.0</v>
       </c>
       <c r="B111" t="n">
-        <v>997.0</v>
+        <v>1241.0</v>
       </c>
       <c r="C111" t="n">
-        <v>881.0</v>
+        <v>1130.0</v>
       </c>
       <c r="D111" t="n">
-        <v>2531.0</v>
+        <v>2318.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>568.0</v>
+        <v>540.0</v>
       </c>
       <c r="B112" t="n">
-        <v>1187.0</v>
+        <v>1285.0</v>
       </c>
       <c r="C112" t="n">
-        <v>989.0</v>
+        <v>1264.0</v>
       </c>
       <c r="D112" t="n">
-        <v>2667.0</v>
+        <v>2331.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>623.0</v>
+        <v>525.0</v>
       </c>
       <c r="B113" t="n">
-        <v>1116.0</v>
+        <v>1080.0</v>
       </c>
       <c r="C113" t="n">
-        <v>1028.0</v>
+        <v>1278.0</v>
       </c>
       <c r="D113" t="n">
-        <v>2704.0</v>
+        <v>2473.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>570.0</v>
+        <v>579.0</v>
       </c>
       <c r="B114" t="n">
-        <v>974.0</v>
+        <v>905.0</v>
       </c>
       <c r="C114" t="n">
-        <v>1000.0</v>
+        <v>1178.0</v>
       </c>
       <c r="D114" t="n">
-        <v>2898.0</v>
+        <v>2918.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>584.0</v>
+        <v>522.0</v>
       </c>
       <c r="B115" t="n">
-        <v>880.0</v>
+        <v>882.0</v>
       </c>
       <c r="C115" t="n">
-        <v>1012.0</v>
+        <v>1140.0</v>
       </c>
       <c r="D115" t="n">
-        <v>2892.0</v>
+        <v>3075.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>517.0</v>
+        <v>501.0</v>
       </c>
       <c r="B116" t="n">
-        <v>908.0</v>
+        <v>1046.0</v>
       </c>
       <c r="C116" t="n">
-        <v>1121.0</v>
+        <v>1333.0</v>
       </c>
       <c r="D116" t="n">
-        <v>2941.0</v>
+        <v>2733.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>545.0</v>
+        <v>496.0</v>
       </c>
       <c r="B117" t="n">
-        <v>948.0</v>
+        <v>1033.0</v>
       </c>
       <c r="C117" t="n">
-        <v>1252.0</v>
+        <v>1496.0</v>
       </c>
       <c r="D117" t="n">
-        <v>2859.0</v>
+        <v>2435.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>578.0</v>
+        <v>489.0</v>
       </c>
       <c r="B118" t="n">
-        <v>1018.0</v>
+        <v>1131.0</v>
       </c>
       <c r="C118" t="n">
-        <v>1369.0</v>
+        <v>1524.0</v>
       </c>
       <c r="D118" t="n">
-        <v>3017.0</v>
+        <v>2551.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>606.0</v>
+        <v>524.0</v>
       </c>
       <c r="B119" t="n">
-        <v>1186.0</v>
+        <v>1282.0</v>
       </c>
       <c r="C119" t="n">
-        <v>1530.0</v>
+        <v>1707.0</v>
       </c>
       <c r="D119" t="n">
-        <v>3157.0</v>
+        <v>2508.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>640.0</v>
+        <v>511.0</v>
       </c>
       <c r="B120" t="n">
-        <v>1166.0</v>
+        <v>1088.0</v>
       </c>
       <c r="C120" t="n">
-        <v>1524.0</v>
+        <v>1679.0</v>
       </c>
       <c r="D120" t="n">
-        <v>3399.0</v>
+        <v>2624.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>629.0</v>
+        <v>531.0</v>
       </c>
       <c r="B121" t="n">
-        <v>1024.0</v>
+        <v>935.0</v>
       </c>
       <c r="C121" t="n">
-        <v>1447.0</v>
+        <v>1641.0</v>
       </c>
       <c r="D121" t="n">
-        <v>3430.0</v>
+        <v>3035.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>623.0</v>
+        <v>554.0</v>
       </c>
       <c r="B122" t="n">
-        <v>1043.0</v>
+        <v>868.0</v>
       </c>
       <c r="C122" t="n">
-        <v>1500.0</v>
+        <v>1455.0</v>
       </c>
       <c r="D122" t="n">
-        <v>3364.0</v>
+        <v>3354.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>642.0</v>
+        <v>557.0</v>
       </c>
       <c r="B123" t="n">
-        <v>1046.0</v>
+        <v>946.0</v>
       </c>
       <c r="C123" t="n">
-        <v>1633.0</v>
+        <v>1625.0</v>
       </c>
       <c r="D123" t="n">
-        <v>3421.0</v>
+        <v>3037.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>616.0</v>
+        <v>541.0</v>
       </c>
       <c r="B124" t="n">
-        <v>1085.0</v>
+        <v>1037.0</v>
       </c>
       <c r="C124" t="n">
-        <v>1710.0</v>
+        <v>1785.0</v>
       </c>
       <c r="D124" t="n">
-        <v>3607.0</v>
+        <v>2699.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>664.0</v>
+        <v>489.0</v>
       </c>
       <c r="B125" t="n">
-        <v>1241.0</v>
+        <v>1177.0</v>
       </c>
       <c r="C125" t="n">
-        <v>1765.0</v>
+        <v>1855.0</v>
       </c>
       <c r="D125" t="n">
-        <v>3670.0</v>
+        <v>2721.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>698.0</v>
+        <v>577.0</v>
       </c>
       <c r="B126" t="n">
-        <v>1412.0</v>
+        <v>1260.0</v>
       </c>
       <c r="C126" t="n">
-        <v>2006.0</v>
+        <v>2113.0</v>
       </c>
       <c r="D126" t="n">
-        <v>4082.0</v>
+        <v>2597.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>688.0</v>
+        <v>572.0</v>
       </c>
       <c r="B127" t="n">
-        <v>1341.0</v>
+        <v>1176.0</v>
       </c>
       <c r="C127" t="n">
-        <v>2025.0</v>
+        <v>2142.0</v>
       </c>
       <c r="D127" t="n">
-        <v>4129.0</v>
+        <v>2873.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>732.0</v>
+        <v>542.0</v>
       </c>
       <c r="B128" t="n">
-        <v>1105.0</v>
+        <v>962.0</v>
       </c>
       <c r="C128" t="n">
-        <v>1994.0</v>
+        <v>1914.0</v>
       </c>
       <c r="D128" t="n">
-        <v>4306.0</v>
+        <v>3228.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>718.0</v>
+        <v>551.0</v>
       </c>
       <c r="B129" t="n">
-        <v>1195.0</v>
+        <v>957.0</v>
       </c>
       <c r="C129" t="n">
-        <v>1997.0</v>
+        <v>1714.0</v>
       </c>
       <c r="D129" t="n">
-        <v>4220.0</v>
+        <v>3562.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>758.0</v>
+        <v>548.0</v>
       </c>
       <c r="B130" t="n">
-        <v>1243.0</v>
+        <v>1084.0</v>
       </c>
       <c r="C130" t="n">
-        <v>2036.0</v>
+        <v>1941.0</v>
       </c>
       <c r="D130" t="n">
-        <v>4296.0</v>
+        <v>3175.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>752.0</v>
+        <v>543.0</v>
       </c>
       <c r="B131" t="n">
-        <v>1383.0</v>
+        <v>1167.0</v>
       </c>
       <c r="C131" t="n">
-        <v>2142.0</v>
+        <v>2084.0</v>
       </c>
       <c r="D131" t="n">
-        <v>4369.0</v>
+        <v>3006.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>844.0</v>
+        <v>577.0</v>
       </c>
       <c r="B132" t="n">
-        <v>1597.0</v>
+        <v>1321.0</v>
       </c>
       <c r="C132" t="n">
-        <v>2313.0</v>
+        <v>2152.0</v>
       </c>
       <c r="D132" t="n">
-        <v>4583.0</v>
+        <v>3033.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>869.0</v>
+        <v>624.0</v>
       </c>
       <c r="B133" t="n">
-        <v>1633.0</v>
+        <v>1385.0</v>
       </c>
       <c r="C133" t="n">
-        <v>2610.0</v>
+        <v>2215.0</v>
       </c>
       <c r="D133" t="n">
-        <v>4986.0</v>
+        <v>2973.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>929.0</v>
+        <v>620.0</v>
       </c>
       <c r="B134" t="n">
-        <v>1584.0</v>
+        <v>1309.0</v>
       </c>
       <c r="C134" t="n">
-        <v>2451.0</v>
+        <v>2241.0</v>
       </c>
       <c r="D134" t="n">
-        <v>5059.0</v>
+        <v>3253.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>856.0</v>
+        <v>663.0</v>
       </c>
       <c r="B135" t="n">
-        <v>1470.0</v>
+        <v>1124.0</v>
       </c>
       <c r="C135" t="n">
-        <v>2258.0</v>
+        <v>2112.0</v>
       </c>
       <c r="D135" t="n">
-        <v>5236.0</v>
+        <v>3529.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>875.0</v>
+        <v>620.0</v>
       </c>
       <c r="B136" t="n">
-        <v>1629.0</v>
+        <v>1059.0</v>
       </c>
       <c r="C136" t="n">
-        <v>2385.0</v>
+        <v>1916.0</v>
       </c>
       <c r="D136" t="n">
-        <v>5305.0</v>
+        <v>3862.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>857.0</v>
+        <v>632.0</v>
       </c>
       <c r="B137" t="n">
-        <v>1571.0</v>
+        <v>1209.0</v>
       </c>
       <c r="C137" t="n">
-        <v>2632.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D137" t="n">
-        <v>5173.0</v>
+        <v>3591.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>877.0</v>
+        <v>644.0</v>
       </c>
       <c r="B138" t="n">
-        <v>1722.0</v>
+        <v>1314.0</v>
       </c>
       <c r="C138" t="n">
-        <v>2563.0</v>
+        <v>2227.0</v>
       </c>
       <c r="D138" t="n">
-        <v>5445.0</v>
+        <v>3377.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>994.0</v>
+        <v>656.0</v>
       </c>
       <c r="B139" t="n">
-        <v>1935.0</v>
+        <v>1398.0</v>
       </c>
       <c r="C139" t="n">
-        <v>2769.0</v>
+        <v>2336.0</v>
       </c>
       <c r="D139" t="n">
-        <v>5749.0</v>
+        <v>3389.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1138.0</v>
+        <v>682.0</v>
       </c>
       <c r="B140" t="n">
-        <v>2025.0</v>
+        <v>1632.0</v>
       </c>
       <c r="C140" t="n">
-        <v>2903.0</v>
+        <v>2470.0</v>
       </c>
       <c r="D140" t="n">
-        <v>5988.0</v>
+        <v>3293.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>987.0</v>
+        <v>727.0</v>
       </c>
       <c r="B141" t="n">
-        <v>1843.0</v>
+        <v>1472.0</v>
       </c>
       <c r="C141" t="n">
-        <v>2933.0</v>
+        <v>2467.0</v>
       </c>
       <c r="D141" t="n">
-        <v>6233.0</v>
+        <v>3435.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1002.0</v>
+        <v>728.0</v>
       </c>
       <c r="B142" t="n">
-        <v>1753.0</v>
+        <v>1248.0</v>
       </c>
       <c r="C142" t="n">
-        <v>2688.0</v>
+        <v>2302.0</v>
       </c>
       <c r="D142" t="n">
-        <v>6458.0</v>
+        <v>3971.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>993.0</v>
+        <v>695.0</v>
       </c>
       <c r="B143" t="n">
-        <v>1728.0</v>
+        <v>1260.0</v>
       </c>
       <c r="C143" t="n">
-        <v>2733.0</v>
+        <v>2172.0</v>
       </c>
       <c r="D143" t="n">
-        <v>6250.0</v>
+        <v>4216.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>999.0</v>
+        <v>687.0</v>
       </c>
       <c r="B144" t="n">
-        <v>1697.0</v>
+        <v>1353.0</v>
       </c>
       <c r="C144" t="n">
-        <v>2692.0</v>
+        <v>2307.0</v>
       </c>
       <c r="D144" t="n">
-        <v>6034.0</v>
+        <v>3861.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1071.0</v>
+        <v>706.0</v>
       </c>
       <c r="B145" t="n">
-        <v>1845.0</v>
+        <v>1515.0</v>
       </c>
       <c r="C145" t="n">
-        <v>2784.0</v>
+        <v>2451.0</v>
       </c>
       <c r="D145" t="n">
-        <v>6447.0</v>
+        <v>3764.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1263.0</v>
+        <v>724.0</v>
       </c>
       <c r="B146" t="n">
-        <v>2099.0</v>
+        <v>1607.0</v>
       </c>
       <c r="C146" t="n">
-        <v>3011.0</v>
+        <v>2461.0</v>
       </c>
       <c r="D146" t="n">
-        <v>6575.0</v>
+        <v>3616.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1224.0</v>
+        <v>742.0</v>
       </c>
       <c r="B147" t="n">
-        <v>2236.0</v>
+        <v>1795.0</v>
       </c>
       <c r="C147" t="n">
-        <v>3112.0</v>
+        <v>2695.0</v>
       </c>
       <c r="D147" t="n">
-        <v>7040.0</v>
+        <v>3639.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1175.0</v>
+        <v>782.0</v>
       </c>
       <c r="B148" t="n">
-        <v>2000.0</v>
+        <v>1700.0</v>
       </c>
       <c r="C148" t="n">
-        <v>2969.0</v>
+        <v>2648.0</v>
       </c>
       <c r="D148" t="n">
-        <v>7122.0</v>
+        <v>3823.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1148.0</v>
+        <v>779.0</v>
       </c>
       <c r="B149" t="n">
-        <v>1866.0</v>
+        <v>1472.0</v>
       </c>
       <c r="C149" t="n">
-        <v>2837.0</v>
+        <v>2439.0</v>
       </c>
       <c r="D149" t="n">
-        <v>7162.0</v>
+        <v>4428.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1061.0</v>
+        <v>799.0</v>
       </c>
       <c r="B150" t="n">
-        <v>1862.0</v>
+        <v>1460.0</v>
       </c>
       <c r="C150" t="n">
-        <v>2778.0</v>
+        <v>2320.0</v>
       </c>
       <c r="D150" t="n">
-        <v>6799.0</v>
+        <v>4486.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1059.0</v>
+        <v>793.0</v>
       </c>
       <c r="B151" t="n">
-        <v>1909.0</v>
+        <v>1554.0</v>
       </c>
       <c r="C151" t="n">
-        <v>2514.0</v>
+        <v>2334.0</v>
       </c>
       <c r="D151" t="n">
-        <v>6543.0</v>
+        <v>4208.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1159.0</v>
+        <v>870.0</v>
       </c>
       <c r="B152" t="n">
-        <v>1953.0</v>
+        <v>1814.0</v>
       </c>
       <c r="C152" t="n">
-        <v>2019.0</v>
+        <v>2126.0</v>
       </c>
       <c r="D152" t="n">
-        <v>6546.0</v>
+        <v>4114.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1261.0</v>
+        <v>918.0</v>
       </c>
       <c r="B153" t="n">
-        <v>2269.0</v>
+        <v>1856.0</v>
       </c>
       <c r="C153" t="n">
-        <v>1775.0</v>
+        <v>1667.0</v>
       </c>
       <c r="D153" t="n">
-        <v>6597.0</v>
+        <v>3898.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1153.0</v>
+        <v>913.0</v>
       </c>
       <c r="B154" t="n">
-        <v>2267.0</v>
+        <v>1970.0</v>
       </c>
       <c r="C154" t="n">
-        <v>1651.0</v>
+        <v>1284.0</v>
       </c>
       <c r="D154" t="n">
-        <v>6377.0</v>
+        <v>3776.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1068.0</v>
+        <v>882.0</v>
       </c>
       <c r="B155" t="n">
-        <v>1986.0</v>
+        <v>1845.0</v>
       </c>
       <c r="C155" t="n">
-        <v>1239.0</v>
+        <v>1007.0</v>
       </c>
       <c r="D155" t="n">
-        <v>5997.0</v>
+        <v>3799.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>993.0</v>
+        <v>899.0</v>
       </c>
       <c r="B156" t="n">
-        <v>1693.0</v>
+        <v>1460.0</v>
       </c>
       <c r="C156" t="n">
-        <v>875.0</v>
+        <v>837.0</v>
       </c>
       <c r="D156" t="n">
-        <v>5498.0</v>
+        <v>4289.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>862.0</v>
+        <v>797.0</v>
       </c>
       <c r="B157" t="n">
-        <v>1291.0</v>
+        <v>1140.0</v>
       </c>
       <c r="C157" t="n">
-        <v>578.0</v>
+        <v>596.0</v>
       </c>
       <c r="D157" t="n">
-        <v>4998.0</v>
+        <v>4402.0</v>
       </c>
     </row>
     <row r="158">
@@ -2547,461 +2547,461 @@
         <v>714.0</v>
       </c>
       <c r="B158" t="n">
-        <v>974.0</v>
+        <v>898.0</v>
       </c>
       <c r="C158" t="n">
-        <v>497.0</v>
+        <v>465.0</v>
       </c>
       <c r="D158" t="n">
-        <v>4429.0</v>
+        <v>4258.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>695.0</v>
+        <v>641.0</v>
       </c>
       <c r="B159" t="n">
-        <v>821.0</v>
+        <v>829.0</v>
       </c>
       <c r="C159" t="n">
-        <v>660.0</v>
+        <v>625.0</v>
       </c>
       <c r="D159" t="n">
-        <v>4130.0</v>
+        <v>3993.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>578.0</v>
+        <v>679.0</v>
       </c>
       <c r="B160" t="n">
-        <v>753.0</v>
+        <v>972.0</v>
       </c>
       <c r="C160" t="n">
-        <v>711.0</v>
+        <v>800.0</v>
       </c>
       <c r="D160" t="n">
-        <v>3923.0</v>
+        <v>3808.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>648.0</v>
+        <v>612.0</v>
       </c>
       <c r="B161" t="n">
-        <v>927.0</v>
+        <v>1122.0</v>
       </c>
       <c r="C161" t="n">
-        <v>655.0</v>
+        <v>842.0</v>
       </c>
       <c r="D161" t="n">
-        <v>3654.0</v>
+        <v>3325.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>606.0</v>
+        <v>659.0</v>
       </c>
       <c r="B162" t="n">
-        <v>997.0</v>
+        <v>1161.0</v>
       </c>
       <c r="C162" t="n">
-        <v>709.0</v>
+        <v>754.0</v>
       </c>
       <c r="D162" t="n">
-        <v>3579.0</v>
+        <v>3198.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>606.0</v>
+        <v>718.0</v>
       </c>
       <c r="B163" t="n">
-        <v>1128.0</v>
+        <v>1194.0</v>
       </c>
       <c r="C163" t="n">
-        <v>732.0</v>
+        <v>727.0</v>
       </c>
       <c r="D163" t="n">
-        <v>3076.0</v>
+        <v>3001.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>560.0</v>
+        <v>636.0</v>
       </c>
       <c r="B164" t="n">
-        <v>1147.0</v>
+        <v>1274.0</v>
       </c>
       <c r="C164" t="n">
-        <v>609.0</v>
+        <v>655.0</v>
       </c>
       <c r="D164" t="n">
-        <v>2852.0</v>
+        <v>2839.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>529.0</v>
+        <v>639.0</v>
       </c>
       <c r="B165" t="n">
-        <v>972.0</v>
+        <v>1441.0</v>
       </c>
       <c r="C165" t="n">
-        <v>560.0</v>
+        <v>718.0</v>
       </c>
       <c r="D165" t="n">
-        <v>2609.0</v>
+        <v>2714.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>514.0</v>
+        <v>660.0</v>
       </c>
       <c r="B166" t="n">
-        <v>1040.0</v>
+        <v>1481.0</v>
       </c>
       <c r="C166" t="n">
-        <v>577.0</v>
+        <v>890.0</v>
       </c>
       <c r="D166" t="n">
-        <v>2684.0</v>
+        <v>2570.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>623.0</v>
+        <v>645.0</v>
       </c>
       <c r="B167" t="n">
-        <v>1345.0</v>
+        <v>1645.0</v>
       </c>
       <c r="C167" t="n">
-        <v>776.0</v>
+        <v>1099.0</v>
       </c>
       <c r="D167" t="n">
-        <v>2774.0</v>
+        <v>2565.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>617.0</v>
+        <v>710.0</v>
       </c>
       <c r="B168" t="n">
-        <v>1387.0</v>
+        <v>1662.0</v>
       </c>
       <c r="C168" t="n">
-        <v>972.0</v>
+        <v>1389.0</v>
       </c>
       <c r="D168" t="n">
-        <v>3084.0</v>
+        <v>2690.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>628.0</v>
+        <v>722.0</v>
       </c>
       <c r="B169" t="n">
-        <v>1272.0</v>
+        <v>1567.0</v>
       </c>
       <c r="C169" t="n">
-        <v>1065.0</v>
+        <v>1556.0</v>
       </c>
       <c r="D169" t="n">
-        <v>3167.0</v>
+        <v>3082.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>640.0</v>
+        <v>673.0</v>
       </c>
       <c r="B170" t="n">
-        <v>1168.0</v>
+        <v>1440.0</v>
       </c>
       <c r="C170" t="n">
-        <v>1166.0</v>
+        <v>1599.0</v>
       </c>
       <c r="D170" t="n">
-        <v>3170.0</v>
+        <v>3428.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>661.0</v>
+        <v>725.0</v>
       </c>
       <c r="B171" t="n">
-        <v>1121.0</v>
+        <v>1515.0</v>
       </c>
       <c r="C171" t="n">
-        <v>1232.0</v>
+        <v>1794.0</v>
       </c>
       <c r="D171" t="n">
-        <v>3297.0</v>
+        <v>3380.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>612.0</v>
+        <v>645.0</v>
       </c>
       <c r="B172" t="n">
-        <v>959.0</v>
+        <v>1387.0</v>
       </c>
       <c r="C172" t="n">
-        <v>1227.0</v>
+        <v>2150.0</v>
       </c>
       <c r="D172" t="n">
-        <v>3265.0</v>
+        <v>3372.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>643.0</v>
+        <v>726.0</v>
       </c>
       <c r="B173" t="n">
-        <v>1059.0</v>
+        <v>1513.0</v>
       </c>
       <c r="C173" t="n">
-        <v>1428.0</v>
+        <v>2276.0</v>
       </c>
       <c r="D173" t="n">
-        <v>3471.0</v>
+        <v>3483.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>692.0</v>
+        <v>736.0</v>
       </c>
       <c r="B174" t="n">
-        <v>1301.0</v>
+        <v>1702.0</v>
       </c>
       <c r="C174" t="n">
-        <v>1715.0</v>
+        <v>2618.0</v>
       </c>
       <c r="D174" t="n">
-        <v>3803.0</v>
+        <v>3428.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>717.0</v>
+        <v>723.0</v>
       </c>
       <c r="B175" t="n">
-        <v>1498.0</v>
+        <v>1787.0</v>
       </c>
       <c r="C175" t="n">
-        <v>1875.0</v>
+        <v>2736.0</v>
       </c>
       <c r="D175" t="n">
-        <v>3921.0</v>
+        <v>3802.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>722.0</v>
+        <v>805.0</v>
       </c>
       <c r="B176" t="n">
-        <v>1361.0</v>
+        <v>1530.0</v>
       </c>
       <c r="C176" t="n">
-        <v>1861.0</v>
+        <v>2842.0</v>
       </c>
       <c r="D176" t="n">
-        <v>4204.0</v>
+        <v>4489.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>677.0</v>
+        <v>764.0</v>
       </c>
       <c r="B177" t="n">
-        <v>1195.0</v>
+        <v>1440.0</v>
       </c>
       <c r="C177" t="n">
-        <v>1875.0</v>
+        <v>2547.0</v>
       </c>
       <c r="D177" t="n">
-        <v>4192.0</v>
+        <v>5127.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>677.0</v>
+        <v>826.0</v>
       </c>
       <c r="B178" t="n">
-        <v>1270.0</v>
+        <v>1453.0</v>
       </c>
       <c r="C178" t="n">
-        <v>2029.0</v>
+        <v>2856.0</v>
       </c>
       <c r="D178" t="n">
-        <v>4189.0</v>
+        <v>4714.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>671.0</v>
+        <v>778.0</v>
       </c>
       <c r="B179" t="n">
-        <v>1205.0</v>
+        <v>1663.0</v>
       </c>
       <c r="C179" t="n">
-        <v>2114.0</v>
+        <v>3071.0</v>
       </c>
       <c r="D179" t="n">
-        <v>4158.0</v>
+        <v>4595.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>759.0</v>
+        <v>828.0</v>
       </c>
       <c r="B180" t="n">
-        <v>1320.0</v>
+        <v>1735.0</v>
       </c>
       <c r="C180" t="n">
-        <v>2131.0</v>
+        <v>3264.0</v>
       </c>
       <c r="D180" t="n">
-        <v>4707.0</v>
+        <v>4671.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>843.0</v>
+        <v>896.0</v>
       </c>
       <c r="B181" t="n">
-        <v>1597.0</v>
+        <v>1919.0</v>
       </c>
       <c r="C181" t="n">
-        <v>2530.0</v>
+        <v>3664.0</v>
       </c>
       <c r="D181" t="n">
-        <v>4921.0</v>
+        <v>4887.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>882.0</v>
+        <v>871.0</v>
       </c>
       <c r="B182" t="n">
-        <v>1716.0</v>
+        <v>1973.0</v>
       </c>
       <c r="C182" t="n">
-        <v>2705.0</v>
+        <v>3919.0</v>
       </c>
       <c r="D182" t="n">
-        <v>5252.0</v>
+        <v>5021.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>876.0</v>
+        <v>955.0</v>
       </c>
       <c r="B183" t="n">
-        <v>1559.0</v>
+        <v>1669.0</v>
       </c>
       <c r="C183" t="n">
-        <v>2687.0</v>
+        <v>3521.0</v>
       </c>
       <c r="D183" t="n">
-        <v>5484.0</v>
+        <v>6063.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>907.0</v>
+        <v>920.0</v>
       </c>
       <c r="B184" t="n">
-        <v>1510.0</v>
+        <v>1726.0</v>
       </c>
       <c r="C184" t="n">
-        <v>2477.0</v>
+        <v>3199.0</v>
       </c>
       <c r="D184" t="n">
-        <v>5531.0</v>
+        <v>6883.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>850.0</v>
+        <v>924.0</v>
       </c>
       <c r="B185" t="n">
-        <v>1476.0</v>
+        <v>1821.0</v>
       </c>
       <c r="C185" t="n">
-        <v>2646.0</v>
+        <v>3453.0</v>
       </c>
       <c r="D185" t="n">
-        <v>5611.0</v>
+        <v>6524.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>862.0</v>
+        <v>996.0</v>
       </c>
       <c r="B186" t="n">
-        <v>1394.0</v>
+        <v>2096.0</v>
       </c>
       <c r="C186" t="n">
-        <v>2553.0</v>
+        <v>3713.0</v>
       </c>
       <c r="D186" t="n">
-        <v>5609.0</v>
+        <v>5845.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>946.0</v>
+        <v>976.0</v>
       </c>
       <c r="B187" t="n">
-        <v>1624.0</v>
+        <v>2280.0</v>
       </c>
       <c r="C187" t="n">
-        <v>2644.0</v>
+        <v>3881.0</v>
       </c>
       <c r="D187" t="n">
-        <v>5858.0</v>
+        <v>6160.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1105.0</v>
+        <v>1057.0</v>
       </c>
       <c r="B188" t="n">
-        <v>1906.0</v>
+        <v>2566.0</v>
       </c>
       <c r="C188" t="n">
-        <v>2970.0</v>
+        <v>4203.0</v>
       </c>
       <c r="D188" t="n">
-        <v>6300.0</v>
+        <v>6112.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1115.0</v>
+        <v>1075.0</v>
       </c>
       <c r="B189" t="n">
-        <v>2131.0</v>
+        <v>2433.0</v>
       </c>
       <c r="C189" t="n">
-        <v>3181.0</v>
+        <v>4379.0</v>
       </c>
       <c r="D189" t="n">
-        <v>6642.0</v>
+        <v>6431.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1073.0</v>
+        <v>1133.0</v>
       </c>
       <c r="B190" t="n">
-        <v>1803.0</v>
+        <v>1895.0</v>
       </c>
       <c r="C190" t="n">
-        <v>3049.0</v>
+        <v>3967.0</v>
       </c>
       <c r="D190" t="n">
-        <v>6724.0</v>
+        <v>7666.0</v>
       </c>
     </row>
     <row r="191">
@@ -3009,2449 +3009,2449 @@
         <v>1111.0</v>
       </c>
       <c r="B191" t="n">
-        <v>1808.0</v>
+        <v>1934.0</v>
       </c>
       <c r="C191" t="n">
-        <v>2866.0</v>
+        <v>3620.0</v>
       </c>
       <c r="D191" t="n">
-        <v>6737.0</v>
+        <v>8500.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>977.0</v>
+        <v>1101.0</v>
       </c>
       <c r="B192" t="n">
-        <v>1781.0</v>
+        <v>2192.0</v>
       </c>
       <c r="C192" t="n">
-        <v>2968.0</v>
+        <v>3772.0</v>
       </c>
       <c r="D192" t="n">
-        <v>6416.0</v>
+        <v>7649.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1016.0</v>
+        <v>1128.0</v>
       </c>
       <c r="B193" t="n">
-        <v>1671.0</v>
+        <v>2412.0</v>
       </c>
       <c r="C193" t="n">
-        <v>2901.0</v>
+        <v>4035.0</v>
       </c>
       <c r="D193" t="n">
-        <v>6616.0</v>
+        <v>6994.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1058.0</v>
+        <v>1174.0</v>
       </c>
       <c r="B194" t="n">
-        <v>1893.0</v>
+        <v>2540.0</v>
       </c>
       <c r="C194" t="n">
-        <v>2900.0</v>
+        <v>4246.0</v>
       </c>
       <c r="D194" t="n">
-        <v>6858.0</v>
+        <v>6940.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1231.0</v>
+        <v>1249.0</v>
       </c>
       <c r="B195" t="n">
-        <v>2225.0</v>
+        <v>2800.0</v>
       </c>
       <c r="C195" t="n">
-        <v>3193.0</v>
+        <v>4459.0</v>
       </c>
       <c r="D195" t="n">
-        <v>7114.0</v>
+        <v>6950.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1232.0</v>
+        <v>1258.0</v>
       </c>
       <c r="B196" t="n">
-        <v>2385.0</v>
+        <v>2746.0</v>
       </c>
       <c r="C196" t="n">
-        <v>3473.0</v>
+        <v>4497.0</v>
       </c>
       <c r="D196" t="n">
-        <v>7549.0</v>
+        <v>7228.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1239.0</v>
+        <v>1277.0</v>
       </c>
       <c r="B197" t="n">
         <v>2021.0</v>
       </c>
       <c r="C197" t="n">
-        <v>3115.0</v>
+        <v>3951.0</v>
       </c>
       <c r="D197" t="n">
-        <v>7529.0</v>
+        <v>8724.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1204.0</v>
+        <v>1312.0</v>
       </c>
       <c r="B198" t="n">
-        <v>1920.0</v>
+        <v>1974.0</v>
       </c>
       <c r="C198" t="n">
-        <v>3035.0</v>
+        <v>3587.0</v>
       </c>
       <c r="D198" t="n">
-        <v>7603.0</v>
+        <v>9551.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1090.0</v>
+        <v>1228.0</v>
       </c>
       <c r="B199" t="n">
-        <v>1910.0</v>
+        <v>2354.0</v>
       </c>
       <c r="C199" t="n">
-        <v>3130.0</v>
+        <v>3815.0</v>
       </c>
       <c r="D199" t="n">
-        <v>7074.0</v>
+        <v>8491.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1087.0</v>
+        <v>1243.0</v>
       </c>
       <c r="B200" t="n">
-        <v>1788.0</v>
+        <v>2534.0</v>
       </c>
       <c r="C200" t="n">
-        <v>2907.0</v>
+        <v>3848.0</v>
       </c>
       <c r="D200" t="n">
-        <v>7029.0</v>
+        <v>7375.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1135.0</v>
+        <v>1219.0</v>
       </c>
       <c r="B201" t="n">
-        <v>1873.0</v>
+        <v>2737.0</v>
       </c>
       <c r="C201" t="n">
-        <v>2907.0</v>
+        <v>4022.0</v>
       </c>
       <c r="D201" t="n">
-        <v>7328.0</v>
+        <v>7358.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1248.0</v>
+        <v>1277.0</v>
       </c>
       <c r="B202" t="n">
-        <v>2389.0</v>
+        <v>3016.0</v>
       </c>
       <c r="C202" t="n">
-        <v>3255.0</v>
+        <v>4119.0</v>
       </c>
       <c r="D202" t="n">
-        <v>7646.0</v>
+        <v>7425.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1364.0</v>
+        <v>1193.0</v>
       </c>
       <c r="B203" t="n">
-        <v>2453.0</v>
+        <v>2671.0</v>
       </c>
       <c r="C203" t="n">
-        <v>3338.0</v>
+        <v>4247.0</v>
       </c>
       <c r="D203" t="n">
-        <v>7833.0</v>
+        <v>7582.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1320.0</v>
+        <v>1279.0</v>
       </c>
       <c r="B204" t="n">
-        <v>2017.0</v>
+        <v>2040.0</v>
       </c>
       <c r="C204" t="n">
-        <v>3194.0</v>
+        <v>3617.0</v>
       </c>
       <c r="D204" t="n">
-        <v>7825.0</v>
+        <v>8899.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1243.0</v>
+        <v>1288.0</v>
       </c>
       <c r="B205" t="n">
-        <v>1991.0</v>
+        <v>1895.0</v>
       </c>
       <c r="C205" t="n">
-        <v>2831.0</v>
+        <v>3093.0</v>
       </c>
       <c r="D205" t="n">
-        <v>7813.0</v>
+        <v>9726.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1153.0</v>
+        <v>1176.0</v>
       </c>
       <c r="B206" t="n">
-        <v>1914.0</v>
+        <v>2264.0</v>
       </c>
       <c r="C206" t="n">
-        <v>2972.0</v>
+        <v>3184.0</v>
       </c>
       <c r="D206" t="n">
-        <v>7325.0</v>
+        <v>8214.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1108.0</v>
+        <v>1225.0</v>
       </c>
       <c r="B207" t="n">
-        <v>1850.0</v>
+        <v>2415.0</v>
       </c>
       <c r="C207" t="n">
-        <v>2746.0</v>
+        <v>3473.0</v>
       </c>
       <c r="D207" t="n">
-        <v>7205.0</v>
+        <v>7306.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1109.0</v>
+        <v>1198.0</v>
       </c>
       <c r="B208" t="n">
-        <v>1675.0</v>
+        <v>2154.0</v>
       </c>
       <c r="C208" t="n">
-        <v>2508.0</v>
+        <v>3136.0</v>
       </c>
       <c r="D208" t="n">
-        <v>7438.0</v>
+        <v>7623.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1178.0</v>
+        <v>1229.0</v>
       </c>
       <c r="B209" t="n">
-        <v>2001.0</v>
+        <v>2215.0</v>
       </c>
       <c r="C209" t="n">
-        <v>2418.0</v>
+        <v>2817.0</v>
       </c>
       <c r="D209" t="n">
-        <v>7437.0</v>
+        <v>8274.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1136.0</v>
+        <v>1081.0</v>
       </c>
       <c r="B210" t="n">
-        <v>2062.0</v>
+        <v>2169.0</v>
       </c>
       <c r="C210" t="n">
-        <v>2740.0</v>
+        <v>3122.0</v>
       </c>
       <c r="D210" t="n">
-        <v>7285.0</v>
+        <v>7632.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>1074.0</v>
+        <v>1052.0</v>
       </c>
       <c r="B211" t="n">
-        <v>1744.0</v>
+        <v>1698.0</v>
       </c>
       <c r="C211" t="n">
-        <v>2459.0</v>
+        <v>2850.0</v>
       </c>
       <c r="D211" t="n">
-        <v>6709.0</v>
+        <v>7539.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>972.0</v>
+        <v>1076.0</v>
       </c>
       <c r="B212" t="n">
-        <v>1396.0</v>
+        <v>1495.0</v>
       </c>
       <c r="C212" t="n">
-        <v>2052.0</v>
+        <v>2452.0</v>
       </c>
       <c r="D212" t="n">
-        <v>6533.0</v>
+        <v>7889.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>943.0</v>
+        <v>1004.0</v>
       </c>
       <c r="B213" t="n">
-        <v>1462.0</v>
+        <v>1862.0</v>
       </c>
       <c r="C213" t="n">
-        <v>2155.0</v>
+        <v>2824.0</v>
       </c>
       <c r="D213" t="n">
-        <v>6335.0</v>
+        <v>6993.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>933.0</v>
+        <v>943.0</v>
       </c>
       <c r="B214" t="n">
-        <v>1412.0</v>
+        <v>2031.0</v>
       </c>
       <c r="C214" t="n">
-        <v>2241.0</v>
+        <v>3046.0</v>
       </c>
       <c r="D214" t="n">
-        <v>6075.0</v>
+        <v>6025.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>993.0</v>
+        <v>957.0</v>
       </c>
       <c r="B215" t="n">
-        <v>1546.0</v>
+        <v>2124.0</v>
       </c>
       <c r="C215" t="n">
-        <v>2203.0</v>
+        <v>3131.0</v>
       </c>
       <c r="D215" t="n">
-        <v>5988.0</v>
+        <v>5853.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1116.0</v>
+        <v>1011.0</v>
       </c>
       <c r="B216" t="n">
-        <v>1846.0</v>
+        <v>2326.0</v>
       </c>
       <c r="C216" t="n">
-        <v>2434.0</v>
+        <v>3488.0</v>
       </c>
       <c r="D216" t="n">
-        <v>6202.0</v>
+        <v>5733.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>1063.0</v>
+        <v>962.0</v>
       </c>
       <c r="B217" t="n">
-        <v>1883.0</v>
+        <v>2046.0</v>
       </c>
       <c r="C217" t="n">
-        <v>2576.0</v>
+        <v>3434.0</v>
       </c>
       <c r="D217" t="n">
-        <v>6233.0</v>
+        <v>5772.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1020.0</v>
+        <v>1022.0</v>
       </c>
       <c r="B218" t="n">
-        <v>1748.0</v>
+        <v>1660.0</v>
       </c>
       <c r="C218" t="n">
-        <v>2627.0</v>
+        <v>2895.0</v>
       </c>
       <c r="D218" t="n">
-        <v>6096.0</v>
+        <v>6810.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1043.0</v>
+        <v>1006.0</v>
       </c>
       <c r="B219" t="n">
-        <v>1603.0</v>
+        <v>1582.0</v>
       </c>
       <c r="C219" t="n">
-        <v>2256.0</v>
+        <v>2501.0</v>
       </c>
       <c r="D219" t="n">
-        <v>6090.0</v>
+        <v>7483.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>945.0</v>
+        <v>957.0</v>
       </c>
       <c r="B220" t="n">
-        <v>1432.0</v>
+        <v>1670.0</v>
       </c>
       <c r="C220" t="n">
-        <v>2329.0</v>
+        <v>2731.0</v>
       </c>
       <c r="D220" t="n">
-        <v>5861.0</v>
+        <v>6414.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>863.0</v>
+        <v>883.0</v>
       </c>
       <c r="B221" t="n">
-        <v>1224.0</v>
+        <v>1425.0</v>
       </c>
       <c r="C221" t="n">
-        <v>1966.0</v>
+        <v>2607.0</v>
       </c>
       <c r="D221" t="n">
-        <v>5655.0</v>
+        <v>5788.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>882.0</v>
+        <v>861.0</v>
       </c>
       <c r="B222" t="n">
-        <v>1231.0</v>
+        <v>1495.0</v>
       </c>
       <c r="C222" t="n">
-        <v>1831.0</v>
+        <v>2224.0</v>
       </c>
       <c r="D222" t="n">
-        <v>5671.0</v>
+        <v>6360.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>925.0</v>
+        <v>886.0</v>
       </c>
       <c r="B223" t="n">
-        <v>1570.0</v>
+        <v>1718.0</v>
       </c>
       <c r="C223" t="n">
-        <v>1995.0</v>
+        <v>2456.0</v>
       </c>
       <c r="D223" t="n">
-        <v>5813.0</v>
+        <v>5798.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1001.0</v>
+        <v>823.0</v>
       </c>
       <c r="B224" t="n">
-        <v>1591.0</v>
+        <v>1753.0</v>
       </c>
       <c r="C224" t="n">
-        <v>2026.0</v>
+        <v>2797.0</v>
       </c>
       <c r="D224" t="n">
-        <v>5432.0</v>
+        <v>5190.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>829.0</v>
+        <v>787.0</v>
       </c>
       <c r="B225" t="n">
-        <v>1280.0</v>
+        <v>1318.0</v>
       </c>
       <c r="C225" t="n">
-        <v>1799.0</v>
+        <v>2349.0</v>
       </c>
       <c r="D225" t="n">
-        <v>5348.0</v>
+        <v>5552.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>750.0</v>
+        <v>794.0</v>
       </c>
       <c r="B226" t="n">
-        <v>1304.0</v>
+        <v>1248.0</v>
       </c>
       <c r="C226" t="n">
-        <v>1749.0</v>
+        <v>2162.0</v>
       </c>
       <c r="D226" t="n">
-        <v>5030.0</v>
+        <v>5941.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>809.0</v>
+        <v>744.0</v>
       </c>
       <c r="B227" t="n">
-        <v>1257.0</v>
+        <v>1418.0</v>
       </c>
       <c r="C227" t="n">
-        <v>1911.0</v>
+        <v>2316.0</v>
       </c>
       <c r="D227" t="n">
-        <v>4918.0</v>
+        <v>5202.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>737.0</v>
+        <v>712.0</v>
       </c>
       <c r="B228" t="n">
-        <v>1133.0</v>
+        <v>1525.0</v>
       </c>
       <c r="C228" t="n">
-        <v>1841.0</v>
+        <v>2593.0</v>
       </c>
       <c r="D228" t="n">
-        <v>4780.0</v>
+        <v>4701.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>786.0</v>
+        <v>755.0</v>
       </c>
       <c r="B229" t="n">
-        <v>1248.0</v>
+        <v>1597.0</v>
       </c>
       <c r="C229" t="n">
-        <v>1862.0</v>
+        <v>2693.0</v>
       </c>
       <c r="D229" t="n">
-        <v>4835.0</v>
+        <v>4573.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>836.0</v>
+        <v>766.0</v>
       </c>
       <c r="B230" t="n">
-        <v>1464.0</v>
+        <v>1728.0</v>
       </c>
       <c r="C230" t="n">
-        <v>1939.0</v>
+        <v>2753.0</v>
       </c>
       <c r="D230" t="n">
-        <v>4956.0</v>
+        <v>4295.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>838.0</v>
+        <v>783.0</v>
       </c>
       <c r="B231" t="n">
-        <v>1656.0</v>
+        <v>1654.0</v>
       </c>
       <c r="C231" t="n">
-        <v>2187.0</v>
+        <v>2846.0</v>
       </c>
       <c r="D231" t="n">
-        <v>4743.0</v>
+        <v>4392.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>824.0</v>
+        <v>808.0</v>
       </c>
       <c r="B232" t="n">
-        <v>1546.0</v>
+        <v>1380.0</v>
       </c>
       <c r="C232" t="n">
-        <v>2172.0</v>
+        <v>2420.0</v>
       </c>
       <c r="D232" t="n">
-        <v>4876.0</v>
+        <v>4942.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>790.0</v>
+        <v>787.0</v>
       </c>
       <c r="B233" t="n">
-        <v>1408.0</v>
+        <v>1243.0</v>
       </c>
       <c r="C233" t="n">
-        <v>1919.0</v>
+        <v>2306.0</v>
       </c>
       <c r="D233" t="n">
-        <v>4770.0</v>
+        <v>5434.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>700.0</v>
+        <v>706.0</v>
       </c>
       <c r="B234" t="n">
-        <v>1319.0</v>
+        <v>1357.0</v>
       </c>
       <c r="C234" t="n">
-        <v>1907.0</v>
+        <v>2343.0</v>
       </c>
       <c r="D234" t="n">
-        <v>4638.0</v>
+        <v>4833.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>697.0</v>
+        <v>692.0</v>
       </c>
       <c r="B235" t="n">
-        <v>1155.0</v>
+        <v>1341.0</v>
       </c>
       <c r="C235" t="n">
-        <v>1754.0</v>
+        <v>2127.0</v>
       </c>
       <c r="D235" t="n">
-        <v>4736.0</v>
+        <v>4279.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>707.0</v>
+        <v>759.0</v>
       </c>
       <c r="B236" t="n">
-        <v>1218.0</v>
+        <v>1490.0</v>
       </c>
       <c r="C236" t="n">
-        <v>1476.0</v>
+        <v>1620.0</v>
       </c>
       <c r="D236" t="n">
-        <v>4636.0</v>
+        <v>4291.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>838.0</v>
+        <v>763.0</v>
       </c>
       <c r="B237" t="n">
-        <v>1516.0</v>
+        <v>1676.0</v>
       </c>
       <c r="C237" t="n">
-        <v>1366.0</v>
+        <v>1272.0</v>
       </c>
       <c r="D237" t="n">
-        <v>4652.0</v>
+        <v>4001.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>814.0</v>
+        <v>768.0</v>
       </c>
       <c r="B238" t="n">
-        <v>1670.0</v>
+        <v>1650.0</v>
       </c>
       <c r="C238" t="n">
-        <v>1305.0</v>
+        <v>1083.0</v>
       </c>
       <c r="D238" t="n">
-        <v>4308.0</v>
+        <v>3692.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>799.0</v>
+        <v>735.0</v>
       </c>
       <c r="B239" t="n">
-        <v>1476.0</v>
+        <v>1365.0</v>
       </c>
       <c r="C239" t="n">
-        <v>855.0</v>
+        <v>885.0</v>
       </c>
       <c r="D239" t="n">
-        <v>4160.0</v>
+        <v>3982.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>777.0</v>
+        <v>710.0</v>
       </c>
       <c r="B240" t="n">
-        <v>1276.0</v>
+        <v>1269.0</v>
       </c>
       <c r="C240" t="n">
-        <v>634.0</v>
+        <v>543.0</v>
       </c>
       <c r="D240" t="n">
-        <v>3909.0</v>
+        <v>3875.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>654.0</v>
+        <v>667.0</v>
       </c>
       <c r="B241" t="n">
-        <v>1175.0</v>
+        <v>1243.0</v>
       </c>
       <c r="C241" t="n">
-        <v>428.0</v>
+        <v>383.0</v>
       </c>
       <c r="D241" t="n">
-        <v>3639.0</v>
+        <v>3571.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>595.0</v>
+        <v>625.0</v>
       </c>
       <c r="B242" t="n">
-        <v>1026.0</v>
+        <v>1148.0</v>
       </c>
       <c r="C242" t="n">
-        <v>371.0</v>
+        <v>282.0</v>
       </c>
       <c r="D242" t="n">
-        <v>3450.0</v>
+        <v>3263.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>625.0</v>
+        <v>622.0</v>
       </c>
       <c r="B243" t="n">
-        <v>1023.0</v>
+        <v>1282.0</v>
       </c>
       <c r="C243" t="n">
-        <v>333.0</v>
+        <v>233.0</v>
       </c>
       <c r="D243" t="n">
-        <v>3450.0</v>
+        <v>3141.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>672.0</v>
+        <v>611.0</v>
       </c>
       <c r="B244" t="n">
-        <v>1258.0</v>
+        <v>1412.0</v>
       </c>
       <c r="C244" t="n">
-        <v>318.0</v>
+        <v>211.0</v>
       </c>
       <c r="D244" t="n">
-        <v>3140.0</v>
+        <v>2648.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>636.0</v>
+        <v>578.0</v>
       </c>
       <c r="B245" t="n">
-        <v>1445.0</v>
+        <v>1361.0</v>
       </c>
       <c r="C245" t="n">
-        <v>330.0</v>
+        <v>196.0</v>
       </c>
       <c r="D245" t="n">
-        <v>2851.0</v>
+        <v>2357.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>622.0</v>
+        <v>572.0</v>
       </c>
       <c r="B246" t="n">
-        <v>1360.0</v>
+        <v>1212.0</v>
       </c>
       <c r="C246" t="n">
-        <v>284.0</v>
+        <v>223.0</v>
       </c>
       <c r="D246" t="n">
-        <v>2743.0</v>
+        <v>2396.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>530.0</v>
+        <v>480.0</v>
       </c>
       <c r="B247" t="n">
-        <v>1170.0</v>
+        <v>1083.0</v>
       </c>
       <c r="C247" t="n">
-        <v>331.0</v>
+        <v>258.0</v>
       </c>
       <c r="D247" t="n">
-        <v>2579.0</v>
+        <v>2325.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>490.0</v>
+        <v>466.0</v>
       </c>
       <c r="B248" t="n">
-        <v>990.0</v>
+        <v>983.0</v>
       </c>
       <c r="C248" t="n">
-        <v>385.0</v>
+        <v>387.0</v>
       </c>
       <c r="D248" t="n">
-        <v>2436.0</v>
+        <v>2226.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>501.0</v>
+        <v>469.0</v>
       </c>
       <c r="B249" t="n">
-        <v>735.0</v>
+        <v>906.0</v>
       </c>
       <c r="C249" t="n">
-        <v>474.0</v>
+        <v>532.0</v>
       </c>
       <c r="D249" t="n">
-        <v>2384.0</v>
+        <v>2261.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>471.0</v>
+        <v>435.0</v>
       </c>
       <c r="B250" t="n">
-        <v>796.0</v>
+        <v>926.0</v>
       </c>
       <c r="C250" t="n">
-        <v>590.0</v>
+        <v>696.0</v>
       </c>
       <c r="D250" t="n">
-        <v>2387.0</v>
+        <v>2119.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>527.0</v>
+        <v>468.0</v>
       </c>
       <c r="B251" t="n">
-        <v>1024.0</v>
+        <v>1056.0</v>
       </c>
       <c r="C251" t="n">
-        <v>718.0</v>
+        <v>835.0</v>
       </c>
       <c r="D251" t="n">
-        <v>2412.0</v>
+        <v>1986.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>540.0</v>
+        <v>487.0</v>
       </c>
       <c r="B252" t="n">
-        <v>1135.0</v>
+        <v>1118.0</v>
       </c>
       <c r="C252" t="n">
-        <v>759.0</v>
+        <v>890.0</v>
       </c>
       <c r="D252" t="n">
-        <v>2274.0</v>
+        <v>1863.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>552.0</v>
+        <v>494.0</v>
       </c>
       <c r="B253" t="n">
-        <v>1114.0</v>
+        <v>1054.0</v>
       </c>
       <c r="C253" t="n">
-        <v>793.0</v>
+        <v>905.0</v>
       </c>
       <c r="D253" t="n">
-        <v>2327.0</v>
+        <v>1917.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>537.0</v>
+        <v>428.0</v>
       </c>
       <c r="B254" t="n">
-        <v>946.0</v>
+        <v>902.0</v>
       </c>
       <c r="C254" t="n">
-        <v>788.0</v>
+        <v>909.0</v>
       </c>
       <c r="D254" t="n">
-        <v>2355.0</v>
+        <v>2149.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>457.0</v>
+        <v>443.0</v>
       </c>
       <c r="B255" t="n">
-        <v>850.0</v>
+        <v>858.0</v>
       </c>
       <c r="C255" t="n">
-        <v>850.0</v>
+        <v>959.0</v>
       </c>
       <c r="D255" t="n">
-        <v>2333.0</v>
+        <v>2207.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>450.0</v>
+        <v>400.0</v>
       </c>
       <c r="B256" t="n">
-        <v>696.0</v>
+        <v>834.0</v>
       </c>
       <c r="C256" t="n">
-        <v>866.0</v>
+        <v>1074.0</v>
       </c>
       <c r="D256" t="n">
-        <v>2324.0</v>
+        <v>2109.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>434.0</v>
+        <v>456.0</v>
       </c>
       <c r="B257" t="n">
-        <v>727.0</v>
+        <v>833.0</v>
       </c>
       <c r="C257" t="n">
-        <v>934.0</v>
+        <v>1128.0</v>
       </c>
       <c r="D257" t="n">
-        <v>2354.0</v>
+        <v>2182.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>506.0</v>
+        <v>409.0</v>
       </c>
       <c r="B258" t="n">
-        <v>863.0</v>
+        <v>995.0</v>
       </c>
       <c r="C258" t="n">
-        <v>1028.0</v>
+        <v>1263.0</v>
       </c>
       <c r="D258" t="n">
-        <v>2357.0</v>
+        <v>2090.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>546.0</v>
+        <v>409.0</v>
       </c>
       <c r="B259" t="n">
-        <v>1022.0</v>
+        <v>1097.0</v>
       </c>
       <c r="C259" t="n">
-        <v>1107.0</v>
+        <v>1327.0</v>
       </c>
       <c r="D259" t="n">
-        <v>2424.0</v>
+        <v>2063.0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>496.0</v>
+        <v>377.0</v>
       </c>
       <c r="B260" t="n">
-        <v>1058.0</v>
+        <v>922.0</v>
       </c>
       <c r="C260" t="n">
-        <v>1174.0</v>
+        <v>1436.0</v>
       </c>
       <c r="D260" t="n">
-        <v>2527.0</v>
+        <v>2125.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>521.0</v>
+        <v>417.0</v>
       </c>
       <c r="B261" t="n">
-        <v>895.0</v>
+        <v>825.0</v>
       </c>
       <c r="C261" t="n">
-        <v>1102.0</v>
+        <v>1228.0</v>
       </c>
       <c r="D261" t="n">
-        <v>2547.0</v>
+        <v>2290.0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>469.0</v>
+        <v>376.0</v>
       </c>
       <c r="B262" t="n">
-        <v>813.0</v>
+        <v>827.0</v>
       </c>
       <c r="C262" t="n">
-        <v>1074.0</v>
+        <v>1302.0</v>
       </c>
       <c r="D262" t="n">
-        <v>2503.0</v>
+        <v>2409.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>473.0</v>
+        <v>394.0</v>
       </c>
       <c r="B263" t="n">
-        <v>754.0</v>
+        <v>801.0</v>
       </c>
       <c r="C263" t="n">
-        <v>1095.0</v>
+        <v>1357.0</v>
       </c>
       <c r="D263" t="n">
-        <v>2500.0</v>
+        <v>2386.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>445.0</v>
+        <v>419.0</v>
       </c>
       <c r="B264" t="n">
-        <v>668.0</v>
+        <v>801.0</v>
       </c>
       <c r="C264" t="n">
-        <v>1103.0</v>
+        <v>1456.0</v>
       </c>
       <c r="D264" t="n">
-        <v>2617.0</v>
+        <v>2349.0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>508.0</v>
+        <v>444.0</v>
       </c>
       <c r="B265" t="n">
-        <v>895.0</v>
+        <v>960.0</v>
       </c>
       <c r="C265" t="n">
-        <v>1178.0</v>
+        <v>1468.0</v>
       </c>
       <c r="D265" t="n">
-        <v>2605.0</v>
+        <v>2183.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>572.0</v>
+        <v>440.0</v>
       </c>
       <c r="B266" t="n">
-        <v>955.0</v>
+        <v>1026.0</v>
       </c>
       <c r="C266" t="n">
-        <v>1285.0</v>
+        <v>1661.0</v>
       </c>
       <c r="D266" t="n">
-        <v>2607.0</v>
+        <v>2082.0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>494.0</v>
+        <v>384.0</v>
       </c>
       <c r="B267" t="n">
-        <v>968.0</v>
+        <v>900.0</v>
       </c>
       <c r="C267" t="n">
-        <v>1418.0</v>
+        <v>1698.0</v>
       </c>
       <c r="D267" t="n">
-        <v>2734.0</v>
+        <v>2256.0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>503.0</v>
+        <v>451.0</v>
       </c>
       <c r="B268" t="n">
-        <v>816.0</v>
+        <v>792.0</v>
       </c>
       <c r="C268" t="n">
-        <v>1305.0</v>
+        <v>1555.0</v>
       </c>
       <c r="D268" t="n">
-        <v>2736.0</v>
+        <v>2488.0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>451.0</v>
+        <v>430.0</v>
       </c>
       <c r="B269" t="n">
-        <v>743.0</v>
+        <v>771.0</v>
       </c>
       <c r="C269" t="n">
-        <v>1217.0</v>
+        <v>1463.0</v>
       </c>
       <c r="D269" t="n">
-        <v>2740.0</v>
+        <v>2535.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>512.0</v>
+        <v>409.0</v>
       </c>
       <c r="B270" t="n">
-        <v>710.0</v>
+        <v>720.0</v>
       </c>
       <c r="C270" t="n">
-        <v>1215.0</v>
+        <v>1469.0</v>
       </c>
       <c r="D270" t="n">
-        <v>2744.0</v>
+        <v>2599.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>468.0</v>
+        <v>450.0</v>
       </c>
       <c r="B271" t="n">
-        <v>742.0</v>
+        <v>772.0</v>
       </c>
       <c r="C271" t="n">
-        <v>1248.0</v>
+        <v>1512.0</v>
       </c>
       <c r="D271" t="n">
-        <v>2669.0</v>
+        <v>2547.0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>508.0</v>
+        <v>431.0</v>
       </c>
       <c r="B272" t="n">
-        <v>875.0</v>
+        <v>953.0</v>
       </c>
       <c r="C272" t="n">
-        <v>1309.0</v>
+        <v>1605.0</v>
       </c>
       <c r="D272" t="n">
-        <v>2801.0</v>
+        <v>2384.0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>550.0</v>
+        <v>472.0</v>
       </c>
       <c r="B273" t="n">
-        <v>1074.0</v>
+        <v>1026.0</v>
       </c>
       <c r="C273" t="n">
-        <v>1445.0</v>
+        <v>1734.0</v>
       </c>
       <c r="D273" t="n">
-        <v>2733.0</v>
+        <v>2225.0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>551.0</v>
+        <v>483.0</v>
       </c>
       <c r="B274" t="n">
-        <v>937.0</v>
+        <v>957.0</v>
       </c>
       <c r="C274" t="n">
-        <v>1554.0</v>
+        <v>1678.0</v>
       </c>
       <c r="D274" t="n">
-        <v>2770.0</v>
+        <v>2256.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>501.0</v>
+        <v>439.0</v>
       </c>
       <c r="B275" t="n">
-        <v>865.0</v>
+        <v>799.0</v>
       </c>
       <c r="C275" t="n">
-        <v>1377.0</v>
+        <v>1500.0</v>
       </c>
       <c r="D275" t="n">
-        <v>2774.0</v>
+        <v>2631.0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>464.0</v>
+        <v>389.0</v>
       </c>
       <c r="B276" t="n">
-        <v>678.0</v>
+        <v>730.0</v>
       </c>
       <c r="C276" t="n">
-        <v>1150.0</v>
+        <v>1316.0</v>
       </c>
       <c r="D276" t="n">
-        <v>2719.0</v>
+        <v>2867.0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>446.0</v>
+        <v>409.0</v>
       </c>
       <c r="B277" t="n">
-        <v>563.0</v>
+        <v>651.0</v>
       </c>
       <c r="C277" t="n">
-        <v>1030.0</v>
+        <v>1196.0</v>
       </c>
       <c r="D277" t="n">
-        <v>2778.0</v>
+        <v>2857.0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>451.0</v>
+        <v>379.0</v>
       </c>
       <c r="B278" t="n">
-        <v>562.0</v>
+        <v>694.0</v>
       </c>
       <c r="C278" t="n">
-        <v>1007.0</v>
+        <v>1211.0</v>
       </c>
       <c r="D278" t="n">
-        <v>2693.0</v>
+        <v>2777.0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>443.0</v>
+        <v>418.0</v>
       </c>
       <c r="B279" t="n">
-        <v>612.0</v>
+        <v>810.0</v>
       </c>
       <c r="C279" t="n">
-        <v>994.0</v>
+        <v>1250.0</v>
       </c>
       <c r="D279" t="n">
-        <v>2646.0</v>
+        <v>2626.0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>475.0</v>
+        <v>406.0</v>
       </c>
       <c r="B280" t="n">
-        <v>803.0</v>
+        <v>926.0</v>
       </c>
       <c r="C280" t="n">
-        <v>1125.0</v>
+        <v>1355.0</v>
       </c>
       <c r="D280" t="n">
-        <v>2570.0</v>
+        <v>2502.0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>512.0</v>
+        <v>394.0</v>
       </c>
       <c r="B281" t="n">
-        <v>838.0</v>
+        <v>918.0</v>
       </c>
       <c r="C281" t="n">
-        <v>1220.0</v>
+        <v>1623.0</v>
       </c>
       <c r="D281" t="n">
-        <v>2527.0</v>
+        <v>2330.0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>478.0</v>
+        <v>387.0</v>
       </c>
       <c r="B282" t="n">
-        <v>718.0</v>
+        <v>822.0</v>
       </c>
       <c r="C282" t="n">
-        <v>1223.0</v>
+        <v>1490.0</v>
       </c>
       <c r="D282" t="n">
-        <v>2589.0</v>
+        <v>2490.0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>477.0</v>
+        <v>376.0</v>
       </c>
       <c r="B283" t="n">
-        <v>679.0</v>
+        <v>803.0</v>
       </c>
       <c r="C283" t="n">
-        <v>1115.0</v>
+        <v>1391.0</v>
       </c>
       <c r="D283" t="n">
-        <v>2559.0</v>
+        <v>2613.0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>387.0</v>
+        <v>422.0</v>
       </c>
       <c r="B284" t="n">
-        <v>605.0</v>
+        <v>744.0</v>
       </c>
       <c r="C284" t="n">
-        <v>1056.0</v>
+        <v>1318.0</v>
       </c>
       <c r="D284" t="n">
-        <v>2433.0</v>
+        <v>2538.0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>391.0</v>
+        <v>396.0</v>
       </c>
       <c r="B285" t="n">
-        <v>602.0</v>
+        <v>740.0</v>
       </c>
       <c r="C285" t="n">
-        <v>912.0</v>
+        <v>1179.0</v>
       </c>
       <c r="D285" t="n">
-        <v>2493.0</v>
+        <v>2617.0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>444.0</v>
+        <v>427.0</v>
       </c>
       <c r="B286" t="n">
-        <v>636.0</v>
+        <v>827.0</v>
       </c>
       <c r="C286" t="n">
-        <v>955.0</v>
+        <v>1271.0</v>
       </c>
       <c r="D286" t="n">
-        <v>2459.0</v>
+        <v>2505.0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>425.0</v>
+        <v>414.0</v>
       </c>
       <c r="B287" t="n">
-        <v>755.0</v>
+        <v>879.0</v>
       </c>
       <c r="C287" t="n">
-        <v>977.0</v>
+        <v>1473.0</v>
       </c>
       <c r="D287" t="n">
-        <v>2392.0</v>
+        <v>2371.0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>437.0</v>
+        <v>406.0</v>
       </c>
       <c r="B288" t="n">
-        <v>738.0</v>
+        <v>881.0</v>
       </c>
       <c r="C288" t="n">
-        <v>1013.0</v>
+        <v>1495.0</v>
       </c>
       <c r="D288" t="n">
-        <v>2345.0</v>
+        <v>2279.0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>400.0</v>
+        <v>424.0</v>
       </c>
       <c r="B289" t="n">
-        <v>665.0</v>
+        <v>725.0</v>
       </c>
       <c r="C289" t="n">
-        <v>984.0</v>
+        <v>1342.0</v>
       </c>
       <c r="D289" t="n">
-        <v>2360.0</v>
+        <v>2528.0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>463.0</v>
+        <v>407.0</v>
       </c>
       <c r="B290" t="n">
-        <v>705.0</v>
+        <v>866.0</v>
       </c>
       <c r="C290" t="n">
-        <v>1004.0</v>
+        <v>1383.0</v>
       </c>
       <c r="D290" t="n">
-        <v>2365.0</v>
+        <v>2561.0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>389.0</v>
+        <v>433.0</v>
       </c>
       <c r="B291" t="n">
-        <v>680.0</v>
+        <v>809.0</v>
       </c>
       <c r="C291" t="n">
-        <v>1018.0</v>
+        <v>1519.0</v>
       </c>
       <c r="D291" t="n">
-        <v>2288.0</v>
+        <v>2266.0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>401.0</v>
+        <v>392.0</v>
       </c>
       <c r="B292" t="n">
-        <v>654.0</v>
+        <v>870.0</v>
       </c>
       <c r="C292" t="n">
-        <v>1008.0</v>
+        <v>1415.0</v>
       </c>
       <c r="D292" t="n">
-        <v>2259.0</v>
+        <v>2274.0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>407.0</v>
+        <v>392.0</v>
       </c>
       <c r="B293" t="n">
-        <v>780.0</v>
+        <v>940.0</v>
       </c>
       <c r="C293" t="n">
-        <v>995.0</v>
+        <v>1534.0</v>
       </c>
       <c r="D293" t="n">
-        <v>2327.0</v>
+        <v>2228.0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>451.0</v>
+        <v>438.0</v>
       </c>
       <c r="B294" t="n">
-        <v>916.0</v>
+        <v>1068.0</v>
       </c>
       <c r="C294" t="n">
-        <v>1168.0</v>
+        <v>1649.0</v>
       </c>
       <c r="D294" t="n">
-        <v>2293.0</v>
+        <v>2152.0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>455.0</v>
+        <v>442.0</v>
       </c>
       <c r="B295" t="n">
-        <v>888.0</v>
+        <v>1005.0</v>
       </c>
       <c r="C295" t="n">
-        <v>1159.0</v>
+        <v>1687.0</v>
       </c>
       <c r="D295" t="n">
-        <v>2293.0</v>
+        <v>2364.0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>433.0</v>
+        <v>420.0</v>
       </c>
       <c r="B296" t="n">
-        <v>720.0</v>
+        <v>826.0</v>
       </c>
       <c r="C296" t="n">
-        <v>1139.0</v>
+        <v>1453.0</v>
       </c>
       <c r="D296" t="n">
-        <v>2396.0</v>
+        <v>2521.0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>422.0</v>
+        <v>416.0</v>
       </c>
       <c r="B297" t="n">
-        <v>707.0</v>
+        <v>799.0</v>
       </c>
       <c r="C297" t="n">
-        <v>1022.0</v>
+        <v>1349.0</v>
       </c>
       <c r="D297" t="n">
-        <v>2468.0</v>
+        <v>2678.0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>455.0</v>
+        <v>442.0</v>
       </c>
       <c r="B298" t="n">
-        <v>767.0</v>
+        <v>857.0</v>
       </c>
       <c r="C298" t="n">
-        <v>1019.0</v>
+        <v>1413.0</v>
       </c>
       <c r="D298" t="n">
-        <v>2434.0</v>
+        <v>2484.0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>435.0</v>
+        <v>389.0</v>
       </c>
       <c r="B299" t="n">
-        <v>780.0</v>
+        <v>893.0</v>
       </c>
       <c r="C299" t="n">
-        <v>1041.0</v>
+        <v>1513.0</v>
       </c>
       <c r="D299" t="n">
-        <v>2421.0</v>
+        <v>2336.0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>443.0</v>
+        <v>423.0</v>
       </c>
       <c r="B300" t="n">
-        <v>788.0</v>
+        <v>1038.0</v>
       </c>
       <c r="C300" t="n">
-        <v>1118.0</v>
+        <v>1505.0</v>
       </c>
       <c r="D300" t="n">
-        <v>2446.0</v>
+        <v>2329.0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>505.0</v>
+        <v>456.0</v>
       </c>
       <c r="B301" t="n">
-        <v>1018.0</v>
+        <v>1171.0</v>
       </c>
       <c r="C301" t="n">
-        <v>1207.0</v>
+        <v>1613.0</v>
       </c>
       <c r="D301" t="n">
-        <v>2426.0</v>
+        <v>2175.0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>499.0</v>
+        <v>427.0</v>
       </c>
       <c r="B302" t="n">
-        <v>964.0</v>
+        <v>956.0</v>
       </c>
       <c r="C302" t="n">
-        <v>1284.0</v>
+        <v>1668.0</v>
       </c>
       <c r="D302" t="n">
-        <v>2484.0</v>
+        <v>2327.0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>451.0</v>
+        <v>468.0</v>
       </c>
       <c r="B303" t="n">
-        <v>802.0</v>
+        <v>828.0</v>
       </c>
       <c r="C303" t="n">
-        <v>1170.0</v>
+        <v>1434.0</v>
       </c>
       <c r="D303" t="n">
-        <v>2629.0</v>
+        <v>2645.0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>473.0</v>
+        <v>421.0</v>
       </c>
       <c r="B304" t="n">
-        <v>757.0</v>
+        <v>850.0</v>
       </c>
       <c r="C304" t="n">
-        <v>1068.0</v>
+        <v>1358.0</v>
       </c>
       <c r="D304" t="n">
-        <v>2548.0</v>
+        <v>2887.0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>497.0</v>
+        <v>424.0</v>
       </c>
       <c r="B305" t="n">
-        <v>814.0</v>
+        <v>923.0</v>
       </c>
       <c r="C305" t="n">
-        <v>1109.0</v>
+        <v>1445.0</v>
       </c>
       <c r="D305" t="n">
-        <v>2622.0</v>
+        <v>2440.0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>447.0</v>
+        <v>457.0</v>
       </c>
       <c r="B306" t="n">
-        <v>770.0</v>
+        <v>917.0</v>
       </c>
       <c r="C306" t="n">
-        <v>1133.0</v>
+        <v>1451.0</v>
       </c>
       <c r="D306" t="n">
-        <v>2414.0</v>
+        <v>2358.0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>417.0</v>
+        <v>446.0</v>
       </c>
       <c r="B307" t="n">
-        <v>857.0</v>
+        <v>1044.0</v>
       </c>
       <c r="C307" t="n">
-        <v>1004.0</v>
+        <v>1247.0</v>
       </c>
       <c r="D307" t="n">
-        <v>2449.0</v>
+        <v>2421.0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>526.0</v>
+        <v>473.0</v>
       </c>
       <c r="B308" t="n">
-        <v>969.0</v>
+        <v>1129.0</v>
       </c>
       <c r="C308" t="n">
-        <v>864.0</v>
+        <v>955.0</v>
       </c>
       <c r="D308" t="n">
-        <v>2437.0</v>
+        <v>2237.0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>499.0</v>
+        <v>433.0</v>
       </c>
       <c r="B309" t="n">
-        <v>1028.0</v>
+        <v>960.0</v>
       </c>
       <c r="C309" t="n">
-        <v>714.0</v>
+        <v>753.0</v>
       </c>
       <c r="D309" t="n">
-        <v>2331.0</v>
+        <v>2401.0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>479.0</v>
+        <v>440.0</v>
       </c>
       <c r="B310" t="n">
-        <v>775.0</v>
+        <v>809.0</v>
       </c>
       <c r="C310" t="n">
-        <v>646.0</v>
+        <v>652.0</v>
       </c>
       <c r="D310" t="n">
-        <v>2382.0</v>
+        <v>2742.0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>454.0</v>
+        <v>449.0</v>
       </c>
       <c r="B311" t="n">
-        <v>802.0</v>
+        <v>842.0</v>
       </c>
       <c r="C311" t="n">
-        <v>464.0</v>
+        <v>490.0</v>
       </c>
       <c r="D311" t="n">
-        <v>2249.0</v>
+        <v>2683.0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>464.0</v>
+        <v>417.0</v>
       </c>
       <c r="B312" t="n">
-        <v>765.0</v>
+        <v>875.0</v>
       </c>
       <c r="C312" t="n">
-        <v>304.0</v>
+        <v>280.0</v>
       </c>
       <c r="D312" t="n">
-        <v>2160.0</v>
+        <v>2234.0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>427.0</v>
+        <v>479.0</v>
       </c>
       <c r="B313" t="n">
-        <v>792.0</v>
+        <v>879.0</v>
       </c>
       <c r="C313" t="n">
-        <v>278.0</v>
+        <v>232.0</v>
       </c>
       <c r="D313" t="n">
-        <v>1970.0</v>
+        <v>1967.0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>426.0</v>
+        <v>416.0</v>
       </c>
       <c r="B314" t="n">
-        <v>824.0</v>
+        <v>997.0</v>
       </c>
       <c r="C314" t="n">
-        <v>229.0</v>
+        <v>174.0</v>
       </c>
       <c r="D314" t="n">
-        <v>1898.0</v>
+        <v>1905.0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>445.0</v>
+        <v>423.0</v>
       </c>
       <c r="B315" t="n">
-        <v>1003.0</v>
+        <v>1081.0</v>
       </c>
       <c r="C315" t="n">
-        <v>246.0</v>
+        <v>149.0</v>
       </c>
       <c r="D315" t="n">
-        <v>1917.0</v>
+        <v>1778.0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>476.0</v>
+        <v>427.0</v>
       </c>
       <c r="B316" t="n">
-        <v>939.0</v>
+        <v>953.0</v>
       </c>
       <c r="C316" t="n">
-        <v>234.0</v>
+        <v>177.0</v>
       </c>
       <c r="D316" t="n">
-        <v>1835.0</v>
+        <v>1701.0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>399.0</v>
+        <v>391.0</v>
       </c>
       <c r="B317" t="n">
-        <v>665.0</v>
+        <v>726.0</v>
       </c>
       <c r="C317" t="n">
-        <v>219.0</v>
+        <v>210.0</v>
       </c>
       <c r="D317" t="n">
-        <v>1747.0</v>
+        <v>1863.0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>366.0</v>
+        <v>356.0</v>
       </c>
       <c r="B318" t="n">
-        <v>566.0</v>
+        <v>529.0</v>
       </c>
       <c r="C318" t="n">
-        <v>251.0</v>
+        <v>211.0</v>
       </c>
       <c r="D318" t="n">
-        <v>1850.0</v>
+        <v>1962.0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>366.0</v>
+        <v>331.0</v>
       </c>
       <c r="B319" t="n">
-        <v>531.0</v>
+        <v>625.0</v>
       </c>
       <c r="C319" t="n">
-        <v>231.0</v>
+        <v>185.0</v>
       </c>
       <c r="D319" t="n">
-        <v>1564.0</v>
+        <v>1856.0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>324.0</v>
+        <v>289.0</v>
       </c>
       <c r="B320" t="n">
-        <v>511.0</v>
+        <v>588.0</v>
       </c>
       <c r="C320" t="n">
-        <v>228.0</v>
+        <v>146.0</v>
       </c>
       <c r="D320" t="n">
-        <v>1562.0</v>
+        <v>1670.0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>300.0</v>
+        <v>333.0</v>
       </c>
       <c r="B321" t="n">
-        <v>518.0</v>
+        <v>682.0</v>
       </c>
       <c r="C321" t="n">
-        <v>205.0</v>
+        <v>121.0</v>
       </c>
       <c r="D321" t="n">
-        <v>1439.0</v>
+        <v>1443.0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>339.0</v>
+        <v>318.0</v>
       </c>
       <c r="B322" t="n">
-        <v>576.0</v>
+        <v>709.0</v>
       </c>
       <c r="C322" t="n">
-        <v>166.0</v>
+        <v>118.0</v>
       </c>
       <c r="D322" t="n">
-        <v>1391.0</v>
+        <v>1318.0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>347.0</v>
+        <v>318.0</v>
       </c>
       <c r="B323" t="n">
-        <v>619.0</v>
+        <v>704.0</v>
       </c>
       <c r="C323" t="n">
-        <v>176.0</v>
+        <v>146.0</v>
       </c>
       <c r="D323" t="n">
-        <v>1407.0</v>
+        <v>1328.0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>333.0</v>
+        <v>304.0</v>
       </c>
       <c r="B324" t="n">
-        <v>548.0</v>
+        <v>549.0</v>
       </c>
       <c r="C324" t="n">
-        <v>176.0</v>
+        <v>142.0</v>
       </c>
       <c r="D324" t="n">
-        <v>1417.0</v>
+        <v>1419.0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>338.0</v>
+        <v>289.0</v>
       </c>
       <c r="B325" t="n">
-        <v>549.0</v>
+        <v>575.0</v>
       </c>
       <c r="C325" t="n">
-        <v>187.0</v>
+        <v>137.0</v>
       </c>
       <c r="D325" t="n">
-        <v>1379.0</v>
+        <v>1387.0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>330.0</v>
+        <v>287.0</v>
       </c>
       <c r="B326" t="n">
-        <v>553.0</v>
+        <v>659.0</v>
       </c>
       <c r="C326" t="n">
-        <v>176.0</v>
+        <v>115.0</v>
       </c>
       <c r="D326" t="n">
-        <v>1319.0</v>
+        <v>1234.0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>302.0</v>
+        <v>292.0</v>
       </c>
       <c r="B327" t="n">
-        <v>536.0</v>
+        <v>579.0</v>
       </c>
       <c r="C327" t="n">
-        <v>165.0</v>
+        <v>117.0</v>
       </c>
       <c r="D327" t="n">
-        <v>1374.0</v>
+        <v>1211.0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>304.0</v>
+        <v>288.0</v>
       </c>
       <c r="B328" t="n">
-        <v>554.0</v>
+        <v>717.0</v>
       </c>
       <c r="C328" t="n">
-        <v>158.0</v>
+        <v>102.0</v>
       </c>
       <c r="D328" t="n">
-        <v>1309.0</v>
+        <v>1114.0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>322.0</v>
+        <v>313.0</v>
       </c>
       <c r="B329" t="n">
-        <v>676.0</v>
+        <v>706.0</v>
       </c>
       <c r="C329" t="n">
-        <v>152.0</v>
+        <v>97.0</v>
       </c>
       <c r="D329" t="n">
-        <v>1353.0</v>
+        <v>1085.0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>375.0</v>
+        <v>276.0</v>
       </c>
       <c r="B330" t="n">
-        <v>701.0</v>
+        <v>642.0</v>
       </c>
       <c r="C330" t="n">
-        <v>162.0</v>
+        <v>132.0</v>
       </c>
       <c r="D330" t="n">
-        <v>1332.0</v>
+        <v>1151.0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>326.0</v>
+        <v>272.0</v>
       </c>
       <c r="B331" t="n">
-        <v>506.0</v>
+        <v>571.0</v>
       </c>
       <c r="C331" t="n">
-        <v>176.0</v>
+        <v>149.0</v>
       </c>
       <c r="D331" t="n">
-        <v>1351.0</v>
+        <v>1332.0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>323.0</v>
+        <v>260.0</v>
       </c>
       <c r="B332" t="n">
-        <v>518.0</v>
+        <v>526.0</v>
       </c>
       <c r="C332" t="n">
-        <v>193.0</v>
+        <v>135.0</v>
       </c>
       <c r="D332" t="n">
-        <v>1388.0</v>
+        <v>1252.0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>310.0</v>
+        <v>271.0</v>
       </c>
       <c r="B333" t="n">
-        <v>633.0</v>
+        <v>635.0</v>
       </c>
       <c r="C333" t="n">
-        <v>177.0</v>
+        <v>99.0</v>
       </c>
       <c r="D333" t="n">
-        <v>1354.0</v>
+        <v>1116.0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>293.0</v>
+        <v>245.0</v>
       </c>
       <c r="B334" t="n">
-        <v>526.0</v>
+        <v>518.0</v>
       </c>
       <c r="C334" t="n">
-        <v>169.0</v>
+        <v>93.0</v>
       </c>
       <c r="D334" t="n">
-        <v>1262.0</v>
+        <v>1056.0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>315.0</v>
+        <v>282.0</v>
       </c>
       <c r="B335" t="n">
-        <v>549.0</v>
+        <v>619.0</v>
       </c>
       <c r="C335" t="n">
-        <v>167.0</v>
+        <v>95.0</v>
       </c>
       <c r="D335" t="n">
-        <v>1317.0</v>
+        <v>998.0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>325.0</v>
+        <v>290.0</v>
       </c>
       <c r="B336" t="n">
-        <v>698.0</v>
+        <v>659.0</v>
       </c>
       <c r="C336" t="n">
-        <v>175.0</v>
+        <v>100.0</v>
       </c>
       <c r="D336" t="n">
-        <v>1306.0</v>
+        <v>956.0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>353.0</v>
+        <v>285.0</v>
       </c>
       <c r="B337" t="n">
-        <v>619.0</v>
+        <v>641.0</v>
       </c>
       <c r="C337" t="n">
-        <v>193.0</v>
+        <v>113.0</v>
       </c>
       <c r="D337" t="n">
-        <v>1333.0</v>
+        <v>1048.0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>309.0</v>
+        <v>241.0</v>
       </c>
       <c r="B338" t="n">
-        <v>444.0</v>
+        <v>526.0</v>
       </c>
       <c r="C338" t="n">
-        <v>175.0</v>
+        <v>116.0</v>
       </c>
       <c r="D338" t="n">
-        <v>1427.0</v>
+        <v>1214.0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>243.0</v>
+        <v>241.0</v>
       </c>
       <c r="B339" t="n">
-        <v>378.0</v>
+        <v>410.0</v>
       </c>
       <c r="C339" t="n">
-        <v>173.0</v>
+        <v>129.0</v>
       </c>
       <c r="D339" t="n">
-        <v>1443.0</v>
+        <v>1231.0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>272.0</v>
+        <v>215.0</v>
       </c>
       <c r="B340" t="n">
-        <v>300.0</v>
+        <v>280.0</v>
       </c>
       <c r="C340" t="n">
-        <v>193.0</v>
+        <v>155.0</v>
       </c>
       <c r="D340" t="n">
-        <v>1322.0</v>
+        <v>1159.0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>220.0</v>
+        <v>175.0</v>
       </c>
       <c r="B341" t="n">
-        <v>217.0</v>
+        <v>185.0</v>
       </c>
       <c r="C341" t="n">
-        <v>174.0</v>
+        <v>117.0</v>
       </c>
       <c r="D341" t="n">
-        <v>1254.0</v>
+        <v>1085.0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>185.0</v>
+        <v>156.0</v>
       </c>
       <c r="B342" t="n">
-        <v>138.0</v>
+        <v>137.0</v>
       </c>
       <c r="C342" t="n">
-        <v>166.0</v>
+        <v>141.0</v>
       </c>
       <c r="D342" t="n">
-        <v>1203.0</v>
+        <v>975.0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>155.0</v>
+        <v>136.0</v>
       </c>
       <c r="B343" t="n">
-        <v>116.0</v>
+        <v>108.0</v>
       </c>
       <c r="C343" t="n">
-        <v>134.0</v>
+        <v>117.0</v>
       </c>
       <c r="D343" t="n">
-        <v>1152.0</v>
+        <v>1007.0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>162.0</v>
+        <v>128.0</v>
       </c>
       <c r="B344" t="n">
-        <v>120.0</v>
+        <v>88.0</v>
       </c>
       <c r="C344" t="n">
-        <v>147.0</v>
+        <v>123.0</v>
       </c>
       <c r="D344" t="n">
-        <v>1103.0</v>
+        <v>921.0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>157.0</v>
+        <v>145.0</v>
       </c>
       <c r="B345" t="n">
-        <v>125.0</v>
+        <v>90.0</v>
       </c>
       <c r="C345" t="n">
-        <v>138.0</v>
+        <v>121.0</v>
       </c>
       <c r="D345" t="n">
-        <v>981.0</v>
+        <v>969.0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>156.0</v>
+        <v>126.0</v>
       </c>
       <c r="B346" t="n">
-        <v>115.0</v>
+        <v>72.0</v>
       </c>
       <c r="C346" t="n">
-        <v>145.0</v>
+        <v>103.0</v>
       </c>
       <c r="D346" t="n">
-        <v>991.0</v>
+        <v>908.0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>131.0</v>
+        <v>86.0</v>
       </c>
       <c r="B347" t="n">
-        <v>92.0</v>
+        <v>65.0</v>
       </c>
       <c r="C347" t="n">
-        <v>123.0</v>
+        <v>91.0</v>
       </c>
       <c r="D347" t="n">
-        <v>932.0</v>
+        <v>821.0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>118.0</v>
+        <v>96.0</v>
       </c>
       <c r="B348" t="n">
-        <v>98.0</v>
+        <v>80.0</v>
       </c>
       <c r="C348" t="n">
-        <v>141.0</v>
+        <v>81.0</v>
       </c>
       <c r="D348" t="n">
-        <v>928.0</v>
+        <v>777.0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>119.0</v>
+        <v>107.0</v>
       </c>
       <c r="B349" t="n">
-        <v>86.0</v>
+        <v>66.0</v>
       </c>
       <c r="C349" t="n">
-        <v>101.0</v>
+        <v>87.0</v>
       </c>
       <c r="D349" t="n">
-        <v>921.0</v>
+        <v>779.0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>115.0</v>
+        <v>90.0</v>
       </c>
       <c r="B350" t="n">
-        <v>95.0</v>
+        <v>66.0</v>
       </c>
       <c r="C350" t="n">
-        <v>118.0</v>
+        <v>79.0</v>
       </c>
       <c r="D350" t="n">
-        <v>869.0</v>
+        <v>781.0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>109.0</v>
+        <v>105.0</v>
       </c>
       <c r="B351" t="n">
-        <v>89.0</v>
+        <v>60.0</v>
       </c>
       <c r="C351" t="n">
-        <v>86.0</v>
+        <v>69.0</v>
       </c>
       <c r="D351" t="n">
-        <v>854.0</v>
+        <v>735.0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>77.0</v>
+        <v>108.0</v>
       </c>
       <c r="B352" t="n">
-        <v>85.0</v>
+        <v>69.0</v>
       </c>
       <c r="C352" t="n">
-        <v>120.0</v>
+        <v>75.0</v>
       </c>
       <c r="D352" t="n">
-        <v>806.0</v>
+        <v>738.0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>125.0</v>
+        <v>118.0</v>
       </c>
       <c r="B353" t="n">
-        <v>73.0</v>
+        <v>60.0</v>
       </c>
       <c r="C353" t="n">
-        <v>103.0</v>
+        <v>83.0</v>
       </c>
       <c r="D353" t="n">
-        <v>759.0</v>
+        <v>744.0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>101.0</v>
+        <v>92.0</v>
       </c>
       <c r="B354" t="n">
-        <v>83.0</v>
+        <v>67.0</v>
       </c>
       <c r="C354" t="n">
-        <v>101.0</v>
+        <v>80.0</v>
       </c>
       <c r="D354" t="n">
-        <v>839.0</v>
+        <v>680.0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>105.0</v>
+        <v>81.0</v>
       </c>
       <c r="B355" t="n">
-        <v>68.0</v>
+        <v>43.0</v>
       </c>
       <c r="C355" t="n">
-        <v>100.0</v>
+        <v>82.0</v>
       </c>
       <c r="D355" t="n">
-        <v>814.0</v>
+        <v>704.0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>109.0</v>
+        <v>84.0</v>
       </c>
       <c r="B356" t="n">
-        <v>71.0</v>
+        <v>49.0</v>
       </c>
       <c r="C356" t="n">
-        <v>101.0</v>
+        <v>84.0</v>
       </c>
       <c r="D356" t="n">
-        <v>751.0</v>
+        <v>649.0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>129.0</v>
+        <v>91.0</v>
       </c>
       <c r="B357" t="n">
-        <v>71.0</v>
+        <v>65.0</v>
       </c>
       <c r="C357" t="n">
-        <v>113.0</v>
+        <v>72.0</v>
       </c>
       <c r="D357" t="n">
-        <v>806.0</v>
+        <v>698.0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>100.0</v>
+        <v>96.0</v>
       </c>
       <c r="B358" t="n">
-        <v>77.0</v>
+        <v>50.0</v>
       </c>
       <c r="C358" t="n">
-        <v>106.0</v>
+        <v>73.0</v>
       </c>
       <c r="D358" t="n">
-        <v>752.0</v>
+        <v>711.0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>106.0</v>
+        <v>89.0</v>
       </c>
       <c r="B359" t="n">
-        <v>76.0</v>
+        <v>55.0</v>
       </c>
       <c r="C359" t="n">
-        <v>102.0</v>
+        <v>75.0</v>
       </c>
       <c r="D359" t="n">
-        <v>775.0</v>
+        <v>653.0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>117.0</v>
+        <v>69.0</v>
       </c>
       <c r="B360" t="n">
-        <v>84.0</v>
+        <v>67.0</v>
       </c>
       <c r="C360" t="n">
-        <v>99.0</v>
+        <v>90.0</v>
       </c>
       <c r="D360" t="n">
-        <v>773.0</v>
+        <v>682.0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>116.0</v>
+        <v>78.0</v>
       </c>
       <c r="B361" t="n">
-        <v>68.0</v>
+        <v>54.0</v>
       </c>
       <c r="C361" t="n">
-        <v>111.0</v>
+        <v>78.0</v>
       </c>
       <c r="D361" t="n">
-        <v>818.0</v>
+        <v>640.0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>118.0</v>
+        <v>89.0</v>
       </c>
       <c r="B362" t="n">
-        <v>78.0</v>
+        <v>70.0</v>
       </c>
       <c r="C362" t="n">
-        <v>101.0</v>
+        <v>73.0</v>
       </c>
       <c r="D362" t="n">
-        <v>756.0</v>
+        <v>565.0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>116.0</v>
+        <v>92.0</v>
       </c>
       <c r="B363" t="n">
-        <v>71.0</v>
+        <v>65.0</v>
       </c>
       <c r="C363" t="n">
-        <v>100.0</v>
+        <v>69.0</v>
       </c>
       <c r="D363" t="n">
-        <v>758.0</v>
+        <v>670.0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>116.0</v>
+        <v>102.0</v>
       </c>
       <c r="B364" t="n">
-        <v>82.0</v>
+        <v>71.0</v>
       </c>
       <c r="C364" t="n">
-        <v>100.0</v>
+        <v>74.0</v>
       </c>
       <c r="D364" t="n">
-        <v>775.0</v>
+        <v>684.0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>99.0</v>
+        <v>83.0</v>
       </c>
       <c r="B365" t="n">
-        <v>70.0</v>
+        <v>57.0</v>
       </c>
       <c r="C365" t="n">
-        <v>82.0</v>
+        <v>81.0</v>
       </c>
       <c r="D365" t="n">
-        <v>757.0</v>
+        <v>664.0</v>
       </c>
     </row>
   </sheetData>
